--- a/teaching/traditional_assets/database/data/singapore/singapore_auto_parts.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_auto_parts.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="sehk_6928" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,29 +592,23 @@
           <t>Auto Parts</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.0524</v>
-      </c>
-      <c r="E2">
-        <v>0.251</v>
-      </c>
       <c r="G2">
-        <v>0.2711060948081264</v>
+        <v>0.432192648922687</v>
       </c>
       <c r="H2">
-        <v>0.2711060948081264</v>
+        <v>0.432192648922687</v>
       </c>
       <c r="I2">
-        <v>0.2076420773778614</v>
+        <v>0.2179974651457541</v>
       </c>
       <c r="J2">
-        <v>0.1594426160256616</v>
+        <v>0.1568311860902949</v>
       </c>
       <c r="K2">
-        <v>6.13</v>
+        <v>0.74</v>
       </c>
       <c r="L2">
-        <v>0.1383747178329571</v>
+        <v>0.09378960709759189</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,64 +632,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>18.9</v>
+        <v>15.1</v>
       </c>
       <c r="V2">
-        <v>0.2592592592592592</v>
+        <v>0.3026052104208417</v>
+      </c>
+      <c r="W2">
+        <v>0.04134078212290503</v>
       </c>
       <c r="X2">
-        <v>0.1380306264963375</v>
+        <v>0.06971016748899099</v>
+      </c>
+      <c r="Y2">
+        <v>-0.02836938536608596</v>
       </c>
       <c r="Z2">
-        <v>0.577234197078294</v>
+        <v>1.888915489585827</v>
       </c>
       <c r="AA2">
-        <v>212.4247956704229</v>
+        <v>0.2962408566560755</v>
       </c>
       <c r="AB2">
-        <v>0.07676411932967898</v>
+        <v>0.06965849054417897</v>
       </c>
       <c r="AC2">
-        <v>212.3480315510932</v>
+        <v>0.2265823661118965</v>
       </c>
       <c r="AD2">
-        <v>73.075</v>
+        <v>0.048</v>
       </c>
       <c r="AE2">
-        <v>0.7522798608036924</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>73.8272798608037</v>
+        <v>0.048</v>
       </c>
       <c r="AG2">
-        <v>54.9272798608037</v>
+        <v>-15.052</v>
       </c>
       <c r="AH2">
-        <v>0.5031598754563001</v>
+        <v>0.0009609994394169937</v>
       </c>
       <c r="AI2">
-        <v>0.5395655013818095</v>
+        <v>0.002630425252082421</v>
       </c>
       <c r="AJ2">
-        <v>0.4296991997374601</v>
+        <v>-0.4319329660238751</v>
       </c>
       <c r="AK2">
-        <v>0.4657724652483929</v>
+        <v>-4.781448538754765</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AM2">
-        <v>-0.624</v>
+        <v>-0.109</v>
       </c>
       <c r="AN2">
-        <v>6.577999819965792</v>
+        <v>0.02526315789473685</v>
+      </c>
+      <c r="AO2">
+        <v>430</v>
       </c>
       <c r="AP2">
-        <v>4.944394622450598</v>
+        <v>-7.922105263157895</v>
       </c>
       <c r="AQ2">
-        <v>-14.375</v>
+        <v>-15.77981651376147</v>
       </c>
     </row>
     <row r="3">
@@ -713,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.3375</v>
+        <v>0.432192648922687</v>
       </c>
       <c r="H3">
-        <v>0.3375</v>
+        <v>0.432192648922687</v>
       </c>
       <c r="I3">
-        <v>0.2253360890865725</v>
+        <v>0.2179974651457541</v>
       </c>
       <c r="J3">
-        <v>0.1711402924777947</v>
+        <v>0.1568311860902949</v>
       </c>
       <c r="K3">
-        <v>2.08</v>
+        <v>0.74</v>
       </c>
       <c r="L3">
-        <v>0.1733333333333333</v>
+        <v>0.09378960709759189</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -752,192 +757,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.3026052104208417</v>
+      </c>
+      <c r="W3">
+        <v>0.04134078212290503</v>
       </c>
       <c r="X3">
-        <v>0.07708125006363206</v>
+        <v>0.06971016748899099</v>
+      </c>
+      <c r="Y3">
+        <v>-0.02836938536608596</v>
       </c>
       <c r="Z3">
-        <v>2482.08</v>
+        <v>1.888915489585827</v>
       </c>
       <c r="AA3">
-        <v>424.7838971532846</v>
+        <v>0.2962408566560755</v>
       </c>
       <c r="AB3">
-        <v>0.07699285572313447</v>
+        <v>0.06965849054417897</v>
       </c>
       <c r="AC3">
-        <v>424.7069042975615</v>
+        <v>0.2265823661118965</v>
       </c>
       <c r="AD3">
-        <v>0.075</v>
+        <v>0.048</v>
       </c>
       <c r="AE3">
-        <v>0.004834654805646877</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.07983465480564687</v>
+        <v>0.048</v>
       </c>
       <c r="AG3">
-        <v>0.07983465480564687</v>
+        <v>-15.052</v>
       </c>
       <c r="AH3">
-        <v>0.001815255910629564</v>
+        <v>0.0009609994394169937</v>
       </c>
       <c r="AI3">
-        <v>0.004515577004219697</v>
+        <v>0.002630425252082421</v>
       </c>
       <c r="AJ3">
-        <v>0.001815255910629564</v>
+        <v>-0.4319329660238751</v>
       </c>
       <c r="AK3">
-        <v>0.004515577004219697</v>
+        <v>-4.781448538754765</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AM3">
-        <v>-0.082</v>
+        <v>-0.109</v>
       </c>
       <c r="AN3">
-        <v>0.02572898799313893</v>
+        <v>0.02526315789473685</v>
+      </c>
+      <c r="AO3">
+        <v>430</v>
       </c>
       <c r="AP3">
-        <v>0.02738753166574507</v>
+        <v>-7.922105263157895</v>
       </c>
       <c r="AQ3">
-        <v>-32.92682926829269</v>
+        <v>-15.77981651376147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TOMO Holdings Limited (SEHK:6928)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SEHK:6928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Auto Parts</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.000960999439416994</v>
+      </c>
+      <c r="F2">
+        <v>0.15</v>
+      </c>
+      <c r="G2">
+        <v>49.9</v>
+      </c>
+      <c r="H2">
+        <v>42.9915204726676</v>
+      </c>
+      <c r="I2">
+        <v>34.848</v>
+      </c>
+      <c r="J2">
+        <v>35.3837204726676</v>
+      </c>
+      <c r="K2">
+        <v>0.048</v>
+      </c>
+      <c r="L2">
+        <v>7.4922</v>
+      </c>
+      <c r="M2">
+        <v>0.069658490544179</v>
+      </c>
+      <c r="N2">
+        <v>0.0687446443275606</v>
+      </c>
+      <c r="O2">
+        <v>0.015936</v>
+      </c>
+      <c r="P2">
+        <v>0.013446</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.069710167488991</v>
+      </c>
+      <c r="T2">
+        <v>0.0785032286206595</v>
+      </c>
+      <c r="U2">
+        <v>1.2798764298515</v>
+      </c>
+      <c r="V2">
+        <v>1.46617009789533</v>
+      </c>
+      <c r="W2">
+        <v>14.17111656204757</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>49.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0192</v>
+      </c>
+      <c r="AD2">
+        <v>0.17</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1.9</v>
+      </c>
+      <c r="AH2">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.048</v>
+      </c>
+      <c r="AK2">
+        <v>0.048</v>
+      </c>
+      <c r="AL2">
+        <v>0.004</v>
+      </c>
+      <c r="AM2">
+        <v>0.048</v>
+      </c>
+      <c r="AN2">
+        <v>15.1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06966197468195033</v>
+      </c>
+      <c r="C2">
+        <v>49.94598854769586</v>
+      </c>
+      <c r="D2">
+        <v>34.84598854769586</v>
+      </c>
+      <c r="E2">
+        <v>-0.048</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>15.1</v>
+      </c>
+      <c r="H2">
+        <v>49.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.9</v>
+      </c>
+      <c r="K2">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L2">
+        <v>1.72</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.72</v>
+      </c>
+      <c r="O2">
+        <v>0.2924</v>
+      </c>
+      <c r="P2">
+        <v>1.4276</v>
+      </c>
+      <c r="Q2">
+        <v>1.6076</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06966197468195033</v>
+      </c>
+      <c r="T2">
+        <v>1.278855395804033</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.17</v>
+      </c>
+      <c r="W2">
+        <v>0.013446</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06960081932499103</v>
+      </c>
+      <c r="C3">
+        <v>49.48184834725561</v>
+      </c>
+      <c r="D3">
+        <v>34.88132834725561</v>
+      </c>
+      <c r="E3">
+        <v>0.45148</v>
+      </c>
+      <c r="F3">
+        <v>0.49948</v>
+      </c>
+      <c r="G3">
+        <v>15.1</v>
+      </c>
+      <c r="H3">
+        <v>49.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.9</v>
+      </c>
+      <c r="K3">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L3">
+        <v>1.72</v>
+      </c>
+      <c r="M3">
+        <v>0.008091576</v>
+      </c>
+      <c r="N3">
+        <v>1.711908424</v>
+      </c>
+      <c r="O3">
+        <v>0.29102443208</v>
+      </c>
+      <c r="P3">
+        <v>1.42088399192</v>
+      </c>
+      <c r="Q3">
+        <v>1.60088399192</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07016803972221315</v>
+      </c>
+      <c r="T3">
+        <v>1.289577112758753</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.17</v>
+      </c>
+      <c r="W3">
+        <v>0.013446</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>212.5667484307136</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jackspeed Corporation Limited (SGX:J17)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Auto Parts</t>
-        </is>
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0695396639680317</v>
+      </c>
+      <c r="C4">
+        <v>49.0177799008032</v>
       </c>
       <c r="D4">
-        <v>0.0524</v>
+        <v>34.91673990080319</v>
       </c>
       <c r="E4">
-        <v>0.251</v>
+        <v>0.95096</v>
+      </c>
+      <c r="F4">
+        <v>0.9989600000000001</v>
       </c>
       <c r="G4">
-        <v>0.2464396284829722</v>
+        <v>15.1</v>
       </c>
       <c r="H4">
-        <v>0.2464396284829722</v>
+        <v>49.9</v>
       </c>
       <c r="I4">
-        <v>0.2010684507368542</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1560805325354576</v>
+        <v>1.9</v>
       </c>
       <c r="K4">
-        <v>4.05</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="L4">
-        <v>0.1253869969040248</v>
+        <v>1.72</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.016183152</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>1.703816848</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.28964886416</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>1.41416798384</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>1.59416798384</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.07068443262044051</v>
+      </c>
+      <c r="T4">
+        <v>1.30051764026357</v>
       </c>
       <c r="U4">
-        <v>18.9</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
-        <v>0.6517241379310345</v>
+        <v>0.17</v>
       </c>
       <c r="W4">
-        <v>0.110655737704918</v>
-      </c>
-      <c r="X4">
-        <v>0.1989800029290428</v>
+        <v>0.013446</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y4">
-        <v>-0.08832426522412481</v>
+        <v>106.2833742153568</v>
       </c>
       <c r="Z4">
-        <v>0.4208993043146356</v>
-      </c>
-      <c r="AA4">
-        <v>0.06569418756123196</v>
-      </c>
-      <c r="AB4">
-        <v>0.0765353829362235</v>
-      </c>
-      <c r="AC4">
-        <v>-0.01084119537499154</v>
-      </c>
-      <c r="AD4">
-        <v>73</v>
-      </c>
-      <c r="AE4">
-        <v>0.7474452059980454</v>
-      </c>
-      <c r="AF4">
-        <v>73.74744520599805</v>
-      </c>
-      <c r="AG4">
-        <v>54.84744520599805</v>
-      </c>
-      <c r="AH4">
-        <v>0.7177545393770328</v>
-      </c>
-      <c r="AI4">
-        <v>0.6189595175833909</v>
-      </c>
-      <c r="AJ4">
-        <v>0.6541337672393926</v>
-      </c>
-      <c r="AK4">
-        <v>0.54712062829424</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>-0.542</v>
-      </c>
-      <c r="AN4">
-        <v>8.90895777398096</v>
-      </c>
-      <c r="AP4">
-        <v>6.693610593848919</v>
-      </c>
-      <c r="AQ4">
-        <v>-11.56826568265683</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06947850861107238</v>
+      </c>
+      <c r="C5">
+        <v>48.55378342709477</v>
+      </c>
+      <c r="D5">
+        <v>34.95222342709477</v>
+      </c>
+      <c r="E5">
+        <v>1.45044</v>
+      </c>
+      <c r="F5">
+        <v>1.49844</v>
+      </c>
+      <c r="G5">
+        <v>15.1</v>
+      </c>
+      <c r="H5">
+        <v>49.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.9</v>
+      </c>
+      <c r="K5">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L5">
+        <v>1.72</v>
+      </c>
+      <c r="M5">
+        <v>0.024274728</v>
+      </c>
+      <c r="N5">
+        <v>1.695725272</v>
+      </c>
+      <c r="O5">
+        <v>0.28827329624</v>
+      </c>
+      <c r="P5">
+        <v>1.40745197576</v>
+      </c>
+      <c r="Q5">
+        <v>1.58745197576</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07121147279491999</v>
+      </c>
+      <c r="T5">
+        <v>1.311683745655084</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.17</v>
+      </c>
+      <c r="W5">
+        <v>0.013446</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>70.85558281023788</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06941735325411308</v>
+      </c>
+      <c r="C6">
+        <v>48.0898591457767</v>
+      </c>
+      <c r="D6">
+        <v>34.9877791457767</v>
+      </c>
+      <c r="E6">
+        <v>1.94992</v>
+      </c>
+      <c r="F6">
+        <v>1.99792</v>
+      </c>
+      <c r="G6">
+        <v>15.1</v>
+      </c>
+      <c r="H6">
+        <v>49.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.9</v>
+      </c>
+      <c r="K6">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L6">
+        <v>1.72</v>
+      </c>
+      <c r="M6">
+        <v>0.032366304</v>
+      </c>
+      <c r="N6">
+        <v>1.687633696</v>
+      </c>
+      <c r="O6">
+        <v>0.28689772832</v>
+      </c>
+      <c r="P6">
+        <v>1.40073596768</v>
+      </c>
+      <c r="Q6">
+        <v>1.58073596768</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07174949297303446</v>
+      </c>
+      <c r="T6">
+        <v>1.323082478242255</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.17</v>
+      </c>
+      <c r="W6">
+        <v>0.013446</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>53.14168710767841</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06935619789715375</v>
+      </c>
+      <c r="C7">
+        <v>47.62600727739001</v>
+      </c>
+      <c r="D7">
+        <v>35.02340727739001</v>
+      </c>
+      <c r="E7">
+        <v>2.4494</v>
+      </c>
+      <c r="F7">
+        <v>2.4974</v>
+      </c>
+      <c r="G7">
+        <v>15.1</v>
+      </c>
+      <c r="H7">
+        <v>49.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.9</v>
+      </c>
+      <c r="K7">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L7">
+        <v>1.72</v>
+      </c>
+      <c r="M7">
+        <v>0.04045788</v>
+      </c>
+      <c r="N7">
+        <v>1.67954212</v>
+      </c>
+      <c r="O7">
+        <v>0.2855221604</v>
+      </c>
+      <c r="P7">
+        <v>1.3940199596</v>
+      </c>
+      <c r="Q7">
+        <v>1.5740199596</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0722988398917408</v>
+      </c>
+      <c r="T7">
+        <v>1.334721184147051</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.17</v>
+      </c>
+      <c r="W7">
+        <v>0.013446</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>42.51334968614272</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06929504254019445</v>
+      </c>
+      <c r="C8">
+        <v>47.16222804337488</v>
+      </c>
+      <c r="D8">
+        <v>35.05910804337488</v>
+      </c>
+      <c r="E8">
+        <v>2.94888</v>
+      </c>
+      <c r="F8">
+        <v>2.99688</v>
+      </c>
+      <c r="G8">
+        <v>15.1</v>
+      </c>
+      <c r="H8">
+        <v>49.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.9</v>
+      </c>
+      <c r="K8">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L8">
+        <v>1.72</v>
+      </c>
+      <c r="M8">
+        <v>0.048549456</v>
+      </c>
+      <c r="N8">
+        <v>1.671450544</v>
+      </c>
+      <c r="O8">
+        <v>0.28414659248</v>
+      </c>
+      <c r="P8">
+        <v>1.38730395152</v>
+      </c>
+      <c r="Q8">
+        <v>1.56730395152</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07285987504276005</v>
+      </c>
+      <c r="T8">
+        <v>1.346607522092374</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.17</v>
+      </c>
+      <c r="W8">
+        <v>0.013446</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>35.42779140511894</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06923388718323513</v>
+      </c>
+      <c r="C9">
+        <v>46.69852166607538</v>
+      </c>
+      <c r="D9">
+        <v>35.09488166607538</v>
+      </c>
+      <c r="E9">
+        <v>3.448360000000001</v>
+      </c>
+      <c r="F9">
+        <v>3.496360000000001</v>
+      </c>
+      <c r="G9">
+        <v>15.1</v>
+      </c>
+      <c r="H9">
+        <v>49.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.9</v>
+      </c>
+      <c r="K9">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L9">
+        <v>1.72</v>
+      </c>
+      <c r="M9">
+        <v>0.05664103200000001</v>
+      </c>
+      <c r="N9">
+        <v>1.663358968</v>
+      </c>
+      <c r="O9">
+        <v>0.28277102456</v>
+      </c>
+      <c r="P9">
+        <v>1.38058794344</v>
+      </c>
+      <c r="Q9">
+        <v>1.56058794344</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07343297546584422</v>
+      </c>
+      <c r="T9">
+        <v>1.358749480208564</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.17</v>
+      </c>
+      <c r="W9">
+        <v>0.013446</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>30.3666783472448</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.0691727318262758</v>
+      </c>
+      <c r="C10">
+        <v>46.234888368744</v>
+      </c>
+      <c r="D10">
+        <v>35.13072836874399</v>
+      </c>
+      <c r="E10">
+        <v>3.94784</v>
+      </c>
+      <c r="F10">
+        <v>3.99584</v>
+      </c>
+      <c r="G10">
+        <v>15.1</v>
+      </c>
+      <c r="H10">
+        <v>49.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.9</v>
+      </c>
+      <c r="K10">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L10">
+        <v>1.72</v>
+      </c>
+      <c r="M10">
+        <v>0.064732608</v>
+      </c>
+      <c r="N10">
+        <v>1.655267392</v>
+      </c>
+      <c r="O10">
+        <v>0.28139545664</v>
+      </c>
+      <c r="P10">
+        <v>1.37387193536</v>
+      </c>
+      <c r="Q10">
+        <v>1.55387193536</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07401853459377805</v>
+      </c>
+      <c r="T10">
+        <v>1.371155393935976</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.17</v>
+      </c>
+      <c r="W10">
+        <v>0.013446</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>26.5708435538392</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0691115764693165</v>
+      </c>
+      <c r="C11">
+        <v>45.77132837554624</v>
+      </c>
+      <c r="D11">
+        <v>35.16664837554624</v>
+      </c>
+      <c r="E11">
+        <v>4.447319999999999</v>
+      </c>
+      <c r="F11">
+        <v>4.49532</v>
+      </c>
+      <c r="G11">
+        <v>15.1</v>
+      </c>
+      <c r="H11">
+        <v>49.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.9</v>
+      </c>
+      <c r="K11">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L11">
+        <v>1.72</v>
+      </c>
+      <c r="M11">
+        <v>0.07282418399999999</v>
+      </c>
+      <c r="N11">
+        <v>1.647175816</v>
+      </c>
+      <c r="O11">
+        <v>0.2800198887200001</v>
+      </c>
+      <c r="P11">
+        <v>1.36715592728</v>
+      </c>
+      <c r="Q11">
+        <v>1.54715592728</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07461696315309505</v>
+      </c>
+      <c r="T11">
+        <v>1.383833965107946</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.17</v>
+      </c>
+      <c r="W11">
+        <v>0.013446</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>23.61852760341263</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06905042111235719</v>
+      </c>
+      <c r="C12">
+        <v>45.30784191156543</v>
+      </c>
+      <c r="D12">
+        <v>35.20264191156542</v>
+      </c>
+      <c r="E12">
+        <v>4.946800000000001</v>
+      </c>
+      <c r="F12">
+        <v>4.994800000000001</v>
+      </c>
+      <c r="G12">
+        <v>15.1</v>
+      </c>
+      <c r="H12">
+        <v>49.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.9</v>
+      </c>
+      <c r="K12">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L12">
+        <v>1.72</v>
+      </c>
+      <c r="M12">
+        <v>0.08091576</v>
+      </c>
+      <c r="N12">
+        <v>1.63908424</v>
+      </c>
+      <c r="O12">
+        <v>0.2786443208</v>
+      </c>
+      <c r="P12">
+        <v>1.3604399192</v>
+      </c>
+      <c r="Q12">
+        <v>1.5404399192</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07522869012484132</v>
+      </c>
+      <c r="T12">
+        <v>1.39679428230596</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.17</v>
+      </c>
+      <c r="W12">
+        <v>0.013446</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>21.25667484307136</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06898926575539788</v>
+      </c>
+      <c r="C13">
+        <v>44.84442920280728</v>
+      </c>
+      <c r="D13">
+        <v>35.23870920280728</v>
+      </c>
+      <c r="E13">
+        <v>5.44628</v>
+      </c>
+      <c r="F13">
+        <v>5.49428</v>
+      </c>
+      <c r="G13">
+        <v>15.1</v>
+      </c>
+      <c r="H13">
+        <v>49.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.9</v>
+      </c>
+      <c r="K13">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L13">
+        <v>1.72</v>
+      </c>
+      <c r="M13">
+        <v>0.08900733599999999</v>
+      </c>
+      <c r="N13">
+        <v>1.630992664</v>
+      </c>
+      <c r="O13">
+        <v>0.27726875288</v>
+      </c>
+      <c r="P13">
+        <v>1.35372391112</v>
+      </c>
+      <c r="Q13">
+        <v>1.53372391112</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07585416377010996</v>
+      </c>
+      <c r="T13">
+        <v>1.410045842587075</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.17</v>
+      </c>
+      <c r="W13">
+        <v>0.013446</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>19.3242498573376</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06892811039843855</v>
+      </c>
+      <c r="C14">
+        <v>44.38109047620474</v>
+      </c>
+      <c r="D14">
+        <v>35.27485047620474</v>
+      </c>
+      <c r="E14">
+        <v>5.94576</v>
+      </c>
+      <c r="F14">
+        <v>5.99376</v>
+      </c>
+      <c r="G14">
+        <v>15.1</v>
+      </c>
+      <c r="H14">
+        <v>49.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.9</v>
+      </c>
+      <c r="K14">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L14">
+        <v>1.72</v>
+      </c>
+      <c r="M14">
+        <v>0.097098912</v>
+      </c>
+      <c r="N14">
+        <v>1.622901088</v>
+      </c>
+      <c r="O14">
+        <v>0.27589318496</v>
+      </c>
+      <c r="P14">
+        <v>1.34700790304</v>
+      </c>
+      <c r="Q14">
+        <v>1.52700790304</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07649385272549836</v>
+      </c>
+      <c r="T14">
+        <v>1.423598574692762</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.17</v>
+      </c>
+      <c r="W14">
+        <v>0.013446</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>17.71389570255947</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06886695504147923</v>
+      </c>
+      <c r="C15">
+        <v>43.91782595962263</v>
+      </c>
+      <c r="D15">
+        <v>35.31106595962262</v>
+      </c>
+      <c r="E15">
+        <v>6.44524</v>
+      </c>
+      <c r="F15">
+        <v>6.49324</v>
+      </c>
+      <c r="G15">
+        <v>15.1</v>
+      </c>
+      <c r="H15">
+        <v>49.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.9</v>
+      </c>
+      <c r="K15">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L15">
+        <v>1.72</v>
+      </c>
+      <c r="M15">
+        <v>0.105190488</v>
+      </c>
+      <c r="N15">
+        <v>1.614809512</v>
+      </c>
+      <c r="O15">
+        <v>0.27451761704</v>
+      </c>
+      <c r="P15">
+        <v>1.34029189496</v>
+      </c>
+      <c r="Q15">
+        <v>1.52029189496</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07714824717411406</v>
+      </c>
+      <c r="T15">
+        <v>1.437462863858349</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.17</v>
+      </c>
+      <c r="W15">
+        <v>0.013446</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>16.35128834082413</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06880579968451993</v>
+      </c>
+      <c r="C16">
+        <v>43.45463588186253</v>
+      </c>
+      <c r="D16">
+        <v>35.34735588186253</v>
+      </c>
+      <c r="E16">
+        <v>6.944720000000001</v>
+      </c>
+      <c r="F16">
+        <v>6.992720000000001</v>
+      </c>
+      <c r="G16">
+        <v>15.1</v>
+      </c>
+      <c r="H16">
+        <v>49.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.9</v>
+      </c>
+      <c r="K16">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L16">
+        <v>1.72</v>
+      </c>
+      <c r="M16">
+        <v>0.113282064</v>
+      </c>
+      <c r="N16">
+        <v>1.606717936</v>
+      </c>
+      <c r="O16">
+        <v>0.27314204912</v>
+      </c>
+      <c r="P16">
+        <v>1.33357588688</v>
+      </c>
+      <c r="Q16">
+        <v>1.51357588688</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07781786009827898</v>
+      </c>
+      <c r="T16">
+        <v>1.451649578353368</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.17</v>
+      </c>
+      <c r="W16">
+        <v>0.013446</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>15.1833391736224</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0687446443275606</v>
+      </c>
+      <c r="C17">
+        <v>42.99152047266758</v>
+      </c>
+      <c r="D17">
+        <v>35.38372047266758</v>
+      </c>
+      <c r="E17">
+        <v>7.444199999999999</v>
+      </c>
+      <c r="F17">
+        <v>7.4922</v>
+      </c>
+      <c r="G17">
+        <v>15.1</v>
+      </c>
+      <c r="H17">
+        <v>49.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.9</v>
+      </c>
+      <c r="K17">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L17">
+        <v>1.72</v>
+      </c>
+      <c r="M17">
+        <v>0.12137364</v>
+      </c>
+      <c r="N17">
+        <v>1.59862636</v>
+      </c>
+      <c r="O17">
+        <v>0.2717664812</v>
+      </c>
+      <c r="P17">
+        <v>1.3268598788</v>
+      </c>
+      <c r="Q17">
+        <v>1.5068598788</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07850322862065953</v>
+      </c>
+      <c r="T17">
+        <v>1.466170097895329</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.17</v>
+      </c>
+      <c r="W17">
+        <v>0.013446</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>14.17111656204757</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06889596897060128</v>
+      </c>
+      <c r="C18">
+        <v>42.40219498542298</v>
+      </c>
+      <c r="D18">
+        <v>35.29387498542298</v>
+      </c>
+      <c r="E18">
+        <v>7.943680000000001</v>
+      </c>
+      <c r="F18">
+        <v>7.991680000000001</v>
+      </c>
+      <c r="G18">
+        <v>15.1</v>
+      </c>
+      <c r="H18">
+        <v>49.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.9</v>
+      </c>
+      <c r="K18">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L18">
+        <v>1.72</v>
+      </c>
+      <c r="M18">
+        <v>0.142251904</v>
+      </c>
+      <c r="N18">
+        <v>1.577748096</v>
+      </c>
+      <c r="O18">
+        <v>0.26821717632</v>
+      </c>
+      <c r="P18">
+        <v>1.30953091968</v>
+      </c>
+      <c r="Q18">
+        <v>1.48953091968</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.079204915441192</v>
+      </c>
+      <c r="T18">
+        <v>1.481036344093051</v>
+      </c>
+      <c r="U18">
+        <v>0.0178</v>
+      </c>
+      <c r="V18">
+        <v>0.17</v>
+      </c>
+      <c r="W18">
+        <v>0.014774</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>12.09122656101671</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06884809361364197</v>
+      </c>
+      <c r="C19">
+        <v>41.93109048429903</v>
+      </c>
+      <c r="D19">
+        <v>35.32225048429903</v>
+      </c>
+      <c r="E19">
+        <v>8.443160000000001</v>
+      </c>
+      <c r="F19">
+        <v>8.491160000000001</v>
+      </c>
+      <c r="G19">
+        <v>15.1</v>
+      </c>
+      <c r="H19">
+        <v>49.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.9</v>
+      </c>
+      <c r="K19">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L19">
+        <v>1.72</v>
+      </c>
+      <c r="M19">
+        <v>0.151142648</v>
+      </c>
+      <c r="N19">
+        <v>1.568857352</v>
+      </c>
+      <c r="O19">
+        <v>0.26670574984</v>
+      </c>
+      <c r="P19">
+        <v>1.30215160216</v>
+      </c>
+      <c r="Q19">
+        <v>1.48215160216</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.0799235103778819</v>
+      </c>
+      <c r="T19">
+        <v>1.496260813090718</v>
+      </c>
+      <c r="U19">
+        <v>0.0178</v>
+      </c>
+      <c r="V19">
+        <v>0.17</v>
+      </c>
+      <c r="W19">
+        <v>0.014774</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>11.37997793978044</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06880021825668267</v>
+      </c>
+      <c r="C20">
+        <v>41.46003164644076</v>
+      </c>
+      <c r="D20">
+        <v>35.35067164644076</v>
+      </c>
+      <c r="E20">
+        <v>8.942639999999999</v>
+      </c>
+      <c r="F20">
+        <v>8.990639999999999</v>
+      </c>
+      <c r="G20">
+        <v>15.1</v>
+      </c>
+      <c r="H20">
+        <v>49.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.9</v>
+      </c>
+      <c r="K20">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L20">
+        <v>1.72</v>
+      </c>
+      <c r="M20">
+        <v>0.160033392</v>
+      </c>
+      <c r="N20">
+        <v>1.559966608</v>
+      </c>
+      <c r="O20">
+        <v>0.26519432336</v>
+      </c>
+      <c r="P20">
+        <v>1.29477228464</v>
+      </c>
+      <c r="Q20">
+        <v>1.47477228464</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08065963202034471</v>
+      </c>
+      <c r="T20">
+        <v>1.511856610600523</v>
+      </c>
+      <c r="U20">
+        <v>0.0178</v>
+      </c>
+      <c r="V20">
+        <v>0.17</v>
+      </c>
+      <c r="W20">
+        <v>0.014774</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>10.74775694312597</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06909928289972334</v>
+      </c>
+      <c r="C21">
+        <v>40.78375795453447</v>
+      </c>
+      <c r="D21">
+        <v>35.17387795453447</v>
+      </c>
+      <c r="E21">
+        <v>9.442120000000001</v>
+      </c>
+      <c r="F21">
+        <v>9.490120000000001</v>
+      </c>
+      <c r="G21">
+        <v>15.1</v>
+      </c>
+      <c r="H21">
+        <v>49.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.9</v>
+      </c>
+      <c r="K21">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L21">
+        <v>1.72</v>
+      </c>
+      <c r="M21">
+        <v>0.1898024</v>
+      </c>
+      <c r="N21">
+        <v>1.5301976</v>
+      </c>
+      <c r="O21">
+        <v>0.260133592</v>
+      </c>
+      <c r="P21">
+        <v>1.270064008</v>
+      </c>
+      <c r="Q21">
+        <v>1.450064008</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08141392950583128</v>
+      </c>
+      <c r="T21">
+        <v>1.527837489530324</v>
+      </c>
+      <c r="U21">
+        <v>0.02</v>
+      </c>
+      <c r="V21">
+        <v>0.17</v>
+      </c>
+      <c r="W21">
+        <v>0.0166</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>9.062056117309371</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06906966754276403</v>
+      </c>
+      <c r="C22">
+        <v>40.30170630898402</v>
+      </c>
+      <c r="D22">
+        <v>35.19130630898402</v>
+      </c>
+      <c r="E22">
+        <v>9.941600000000001</v>
+      </c>
+      <c r="F22">
+        <v>9.989600000000001</v>
+      </c>
+      <c r="G22">
+        <v>15.1</v>
+      </c>
+      <c r="H22">
+        <v>49.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.9</v>
+      </c>
+      <c r="K22">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L22">
+        <v>1.72</v>
+      </c>
+      <c r="M22">
+        <v>0.199792</v>
+      </c>
+      <c r="N22">
+        <v>1.520208</v>
+      </c>
+      <c r="O22">
+        <v>0.25843536</v>
+      </c>
+      <c r="P22">
+        <v>1.26177264</v>
+      </c>
+      <c r="Q22">
+        <v>1.44177264</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08218708442845503</v>
+      </c>
+      <c r="T22">
+        <v>1.544217890433369</v>
+      </c>
+      <c r="U22">
+        <v>0.02</v>
+      </c>
+      <c r="V22">
+        <v>0.17</v>
+      </c>
+      <c r="W22">
+        <v>0.0166</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>8.608953311443901</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06904005218580471</v>
+      </c>
+      <c r="C23">
+        <v>39.81967194319544</v>
+      </c>
+      <c r="D23">
+        <v>35.20875194319544</v>
+      </c>
+      <c r="E23">
+        <v>10.44108</v>
+      </c>
+      <c r="F23">
+        <v>10.48908</v>
+      </c>
+      <c r="G23">
+        <v>15.1</v>
+      </c>
+      <c r="H23">
+        <v>49.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.9</v>
+      </c>
+      <c r="K23">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L23">
+        <v>1.72</v>
+      </c>
+      <c r="M23">
+        <v>0.2097816</v>
+      </c>
+      <c r="N23">
+        <v>1.5102184</v>
+      </c>
+      <c r="O23">
+        <v>0.256737128</v>
+      </c>
+      <c r="P23">
+        <v>1.253481272</v>
+      </c>
+      <c r="Q23">
+        <v>1.433481272</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08297981289342368</v>
+      </c>
+      <c r="T23">
+        <v>1.561012985030163</v>
+      </c>
+      <c r="U23">
+        <v>0.02</v>
+      </c>
+      <c r="V23">
+        <v>0.17</v>
+      </c>
+      <c r="W23">
+        <v>0.0166</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>8.199003153756099</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06921129682884539</v>
+      </c>
+      <c r="C24">
+        <v>39.21955465978552</v>
+      </c>
+      <c r="D24">
+        <v>35.10811465978552</v>
+      </c>
+      <c r="E24">
+        <v>10.94056</v>
+      </c>
+      <c r="F24">
+        <v>10.98856</v>
+      </c>
+      <c r="G24">
+        <v>15.1</v>
+      </c>
+      <c r="H24">
+        <v>49.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.9</v>
+      </c>
+      <c r="K24">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L24">
+        <v>1.72</v>
+      </c>
+      <c r="M24">
+        <v>0.231858616</v>
+      </c>
+      <c r="N24">
+        <v>1.488141384</v>
+      </c>
+      <c r="O24">
+        <v>0.25298403528</v>
+      </c>
+      <c r="P24">
+        <v>1.23515734872</v>
+      </c>
+      <c r="Q24">
+        <v>1.41515734872</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08379286772928896</v>
+      </c>
+      <c r="T24">
+        <v>1.578238723078156</v>
+      </c>
+      <c r="U24">
+        <v>0.0211</v>
+      </c>
+      <c r="V24">
+        <v>0.17</v>
+      </c>
+      <c r="W24">
+        <v>0.017513</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>7.41831392627652</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06919081147188606</v>
+      </c>
+      <c r="C25">
+        <v>38.73208321741397</v>
+      </c>
+      <c r="D25">
+        <v>35.12012321741397</v>
+      </c>
+      <c r="E25">
+        <v>11.44004</v>
+      </c>
+      <c r="F25">
+        <v>11.48804</v>
+      </c>
+      <c r="G25">
+        <v>15.1</v>
+      </c>
+      <c r="H25">
+        <v>49.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.9</v>
+      </c>
+      <c r="K25">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L25">
+        <v>1.72</v>
+      </c>
+      <c r="M25">
+        <v>0.242397644</v>
+      </c>
+      <c r="N25">
+        <v>1.477602356</v>
+      </c>
+      <c r="O25">
+        <v>0.25119240052</v>
+      </c>
+      <c r="P25">
+        <v>1.22640995548</v>
+      </c>
+      <c r="Q25">
+        <v>1.40640995548</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08462704087257931</v>
+      </c>
+      <c r="T25">
+        <v>1.59591188289363</v>
+      </c>
+      <c r="U25">
+        <v>0.0211</v>
+      </c>
+      <c r="V25">
+        <v>0.17</v>
+      </c>
+      <c r="W25">
+        <v>0.017513</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>7.095778538177541</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06917032611492677</v>
+      </c>
+      <c r="C26">
+        <v>38.24461999278917</v>
+      </c>
+      <c r="D26">
+        <v>35.13213999278917</v>
+      </c>
+      <c r="E26">
+        <v>11.93952</v>
+      </c>
+      <c r="F26">
+        <v>11.98752</v>
+      </c>
+      <c r="G26">
+        <v>15.1</v>
+      </c>
+      <c r="H26">
+        <v>49.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.9</v>
+      </c>
+      <c r="K26">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L26">
+        <v>1.72</v>
+      </c>
+      <c r="M26">
+        <v>0.252936672</v>
+      </c>
+      <c r="N26">
+        <v>1.467063328</v>
+      </c>
+      <c r="O26">
+        <v>0.24940076576</v>
+      </c>
+      <c r="P26">
+        <v>1.21766256224</v>
+      </c>
+      <c r="Q26">
+        <v>1.39766256224</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08548316594069311</v>
+      </c>
+      <c r="T26">
+        <v>1.614050125862142</v>
+      </c>
+      <c r="U26">
+        <v>0.0211</v>
+      </c>
+      <c r="V26">
+        <v>0.17</v>
+      </c>
+      <c r="W26">
+        <v>0.017513</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>6.80012109908681</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06914984075796746</v>
+      </c>
+      <c r="C27">
+        <v>37.75716499434944</v>
+      </c>
+      <c r="D27">
+        <v>35.14416499434945</v>
+      </c>
+      <c r="E27">
+        <v>12.439</v>
+      </c>
+      <c r="F27">
+        <v>12.487</v>
+      </c>
+      <c r="G27">
+        <v>15.1</v>
+      </c>
+      <c r="H27">
+        <v>49.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.9</v>
+      </c>
+      <c r="K27">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L27">
+        <v>1.72</v>
+      </c>
+      <c r="M27">
+        <v>0.2634757</v>
+      </c>
+      <c r="N27">
+        <v>1.4565243</v>
+      </c>
+      <c r="O27">
+        <v>0.247609131</v>
+      </c>
+      <c r="P27">
+        <v>1.208915169</v>
+      </c>
+      <c r="Q27">
+        <v>1.388915169</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08636212101062327</v>
+      </c>
+      <c r="T27">
+        <v>1.632672055309815</v>
+      </c>
+      <c r="U27">
+        <v>0.0211</v>
+      </c>
+      <c r="V27">
+        <v>0.17</v>
+      </c>
+      <c r="W27">
+        <v>0.017513</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>6.528116255123336</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06945305540100813</v>
+      </c>
+      <c r="C28">
+        <v>37.08053313776153</v>
+      </c>
+      <c r="D28">
+        <v>34.96701313776153</v>
+      </c>
+      <c r="E28">
+        <v>12.93848</v>
+      </c>
+      <c r="F28">
+        <v>12.98648</v>
+      </c>
+      <c r="G28">
+        <v>15.1</v>
+      </c>
+      <c r="H28">
+        <v>49.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.9</v>
+      </c>
+      <c r="K28">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L28">
+        <v>1.72</v>
+      </c>
+      <c r="M28">
+        <v>0.293494448</v>
+      </c>
+      <c r="N28">
+        <v>1.426505552</v>
+      </c>
+      <c r="O28">
+        <v>0.24250594384</v>
+      </c>
+      <c r="P28">
+        <v>1.18399960816</v>
+      </c>
+      <c r="Q28">
+        <v>1.36399960816</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08726483162298396</v>
+      </c>
+      <c r="T28">
+        <v>1.651797280147965</v>
+      </c>
+      <c r="U28">
+        <v>0.0226</v>
+      </c>
+      <c r="V28">
+        <v>0.17</v>
+      </c>
+      <c r="W28">
+        <v>0.018758</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>5.860417502684753</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06944502004404882</v>
+      </c>
+      <c r="C29">
+        <v>36.58572472041555</v>
+      </c>
+      <c r="D29">
+        <v>34.97168472041555</v>
+      </c>
+      <c r="E29">
+        <v>13.43796</v>
+      </c>
+      <c r="F29">
+        <v>13.48596</v>
+      </c>
+      <c r="G29">
+        <v>15.1</v>
+      </c>
+      <c r="H29">
+        <v>49.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.9</v>
+      </c>
+      <c r="K29">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L29">
+        <v>1.72</v>
+      </c>
+      <c r="M29">
+        <v>0.304782696</v>
+      </c>
+      <c r="N29">
+        <v>1.415217304</v>
+      </c>
+      <c r="O29">
+        <v>0.24058694168</v>
+      </c>
+      <c r="P29">
+        <v>1.17463036232</v>
+      </c>
+      <c r="Q29">
+        <v>1.35463036232</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08819227403294359</v>
+      </c>
+      <c r="T29">
+        <v>1.671446483748805</v>
+      </c>
+      <c r="U29">
+        <v>0.0226</v>
+      </c>
+      <c r="V29">
+        <v>0.17</v>
+      </c>
+      <c r="W29">
+        <v>0.018758</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>5.643365002585318</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.0694369846870895</v>
+      </c>
+      <c r="C30">
+        <v>36.09091755148047</v>
+      </c>
+      <c r="D30">
+        <v>34.97635755148048</v>
+      </c>
+      <c r="E30">
+        <v>13.93744</v>
+      </c>
+      <c r="F30">
+        <v>13.98544</v>
+      </c>
+      <c r="G30">
+        <v>15.1</v>
+      </c>
+      <c r="H30">
+        <v>49.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.9</v>
+      </c>
+      <c r="K30">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L30">
+        <v>1.72</v>
+      </c>
+      <c r="M30">
+        <v>0.316070944</v>
+      </c>
+      <c r="N30">
+        <v>1.403929056</v>
+      </c>
+      <c r="O30">
+        <v>0.23866793952</v>
+      </c>
+      <c r="P30">
+        <v>1.16526111648</v>
+      </c>
+      <c r="Q30">
+        <v>1.34526111648</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08914547873206875</v>
+      </c>
+      <c r="T30">
+        <v>1.691641498560779</v>
+      </c>
+      <c r="U30">
+        <v>0.0226</v>
+      </c>
+      <c r="V30">
+        <v>0.17</v>
+      </c>
+      <c r="W30">
+        <v>0.018758</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>5.441816252492984</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.06942894933013016</v>
+      </c>
+      <c r="C31">
+        <v>35.59611163145684</v>
+      </c>
+      <c r="D31">
+        <v>34.98103163145684</v>
+      </c>
+      <c r="E31">
+        <v>14.43692</v>
+      </c>
+      <c r="F31">
+        <v>14.48492</v>
+      </c>
+      <c r="G31">
+        <v>15.1</v>
+      </c>
+      <c r="H31">
+        <v>49.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.9</v>
+      </c>
+      <c r="K31">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L31">
+        <v>1.72</v>
+      </c>
+      <c r="M31">
+        <v>0.327359192</v>
+      </c>
+      <c r="N31">
+        <v>1.392640808</v>
+      </c>
+      <c r="O31">
+        <v>0.23674893736</v>
+      </c>
+      <c r="P31">
+        <v>1.15589187064</v>
+      </c>
+      <c r="Q31">
+        <v>1.33589187064</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09012553426778898</v>
+      </c>
+      <c r="T31">
+        <v>1.712405387029428</v>
+      </c>
+      <c r="U31">
+        <v>0.0226</v>
+      </c>
+      <c r="V31">
+        <v>0.17</v>
+      </c>
+      <c r="W31">
+        <v>0.018758</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>5.254167416200123</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06942091397317086</v>
+      </c>
+      <c r="C32">
+        <v>35.10130696084536</v>
+      </c>
+      <c r="D32">
+        <v>34.98570696084536</v>
+      </c>
+      <c r="E32">
+        <v>14.9364</v>
+      </c>
+      <c r="F32">
+        <v>14.9844</v>
+      </c>
+      <c r="G32">
+        <v>15.1</v>
+      </c>
+      <c r="H32">
+        <v>49.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.9</v>
+      </c>
+      <c r="K32">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L32">
+        <v>1.72</v>
+      </c>
+      <c r="M32">
+        <v>0.33864744</v>
+      </c>
+      <c r="N32">
+        <v>1.38135256</v>
+      </c>
+      <c r="O32">
+        <v>0.2348299352</v>
+      </c>
+      <c r="P32">
+        <v>1.1465226248</v>
+      </c>
+      <c r="Q32">
+        <v>1.3265226248</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09113359139024409</v>
+      </c>
+      <c r="T32">
+        <v>1.733762529454324</v>
+      </c>
+      <c r="U32">
+        <v>0.0226</v>
+      </c>
+      <c r="V32">
+        <v>0.17</v>
+      </c>
+      <c r="W32">
+        <v>0.018758</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>5.079028502326786</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06941287861621154</v>
+      </c>
+      <c r="C33">
+        <v>34.6065035401471</v>
+      </c>
+      <c r="D33">
+        <v>34.9903835401471</v>
+      </c>
+      <c r="E33">
+        <v>15.43588</v>
+      </c>
+      <c r="F33">
+        <v>15.48388</v>
+      </c>
+      <c r="G33">
+        <v>15.1</v>
+      </c>
+      <c r="H33">
+        <v>49.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.9</v>
+      </c>
+      <c r="K33">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L33">
+        <v>1.72</v>
+      </c>
+      <c r="M33">
+        <v>0.349935688</v>
+      </c>
+      <c r="N33">
+        <v>1.370064312</v>
+      </c>
+      <c r="O33">
+        <v>0.23291093304</v>
+      </c>
+      <c r="P33">
+        <v>1.13715337896</v>
+      </c>
+      <c r="Q33">
+        <v>1.31715337896</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09217086755972688</v>
+      </c>
+      <c r="T33">
+        <v>1.755738719485739</v>
+      </c>
+      <c r="U33">
+        <v>0.0226</v>
+      </c>
+      <c r="V33">
+        <v>0.17</v>
+      </c>
+      <c r="W33">
+        <v>0.018758</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>4.915188873219471</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06940484325925224</v>
+      </c>
+      <c r="C34">
+        <v>34.11170136986334</v>
+      </c>
+      <c r="D34">
+        <v>34.99506136986334</v>
+      </c>
+      <c r="E34">
+        <v>15.93536</v>
+      </c>
+      <c r="F34">
+        <v>15.98336</v>
+      </c>
+      <c r="G34">
+        <v>15.1</v>
+      </c>
+      <c r="H34">
+        <v>49.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.9</v>
+      </c>
+      <c r="K34">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L34">
+        <v>1.72</v>
+      </c>
+      <c r="M34">
+        <v>0.361223936</v>
+      </c>
+      <c r="N34">
+        <v>1.358776064</v>
+      </c>
+      <c r="O34">
+        <v>0.23099193088</v>
+      </c>
+      <c r="P34">
+        <v>1.12778413312</v>
+      </c>
+      <c r="Q34">
+        <v>1.30778413312</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09323865185184153</v>
+      </c>
+      <c r="T34">
+        <v>1.77836126804749</v>
+      </c>
+      <c r="U34">
+        <v>0.0226</v>
+      </c>
+      <c r="V34">
+        <v>0.17</v>
+      </c>
+      <c r="W34">
+        <v>0.018758</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>4.761589220931361</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06939680790229291</v>
+      </c>
+      <c r="C35">
+        <v>33.61690045049566</v>
+      </c>
+      <c r="D35">
+        <v>34.99974045049566</v>
+      </c>
+      <c r="E35">
+        <v>16.43484</v>
+      </c>
+      <c r="F35">
+        <v>16.48284</v>
+      </c>
+      <c r="G35">
+        <v>15.1</v>
+      </c>
+      <c r="H35">
+        <v>49.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.9</v>
+      </c>
+      <c r="K35">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L35">
+        <v>1.72</v>
+      </c>
+      <c r="M35">
+        <v>0.372512184</v>
+      </c>
+      <c r="N35">
+        <v>1.347487816</v>
+      </c>
+      <c r="O35">
+        <v>0.22907292872</v>
+      </c>
+      <c r="P35">
+        <v>1.11841488728</v>
+      </c>
+      <c r="Q35">
+        <v>1.29841488728</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09433831030192974</v>
+      </c>
+      <c r="T35">
+        <v>1.801659116566308</v>
+      </c>
+      <c r="U35">
+        <v>0.0226</v>
+      </c>
+      <c r="V35">
+        <v>0.17</v>
+      </c>
+      <c r="W35">
+        <v>0.018758</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>4.617298638478896</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.09446401187200371</v>
+      </c>
+      <c r="C36">
+        <v>22.81558504520606</v>
+      </c>
+      <c r="D36">
+        <v>24.69790504520606</v>
+      </c>
+      <c r="E36">
+        <v>16.93432</v>
+      </c>
+      <c r="F36">
+        <v>16.98232</v>
+      </c>
+      <c r="G36">
+        <v>15.1</v>
+      </c>
+      <c r="H36">
+        <v>49.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.9</v>
+      </c>
+      <c r="K36">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L36">
+        <v>1.72</v>
+      </c>
+      <c r="M36">
+        <v>1.85107288</v>
+      </c>
+      <c r="N36">
+        <v>-0.1310728800000003</v>
+      </c>
+      <c r="O36">
+        <v>-0.02228238960000005</v>
+      </c>
+      <c r="P36">
+        <v>-0.1087904904000002</v>
+      </c>
+      <c r="Q36">
+        <v>0.07120950959999971</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09584560624815996</v>
+      </c>
+      <c r="T36">
+        <v>1.833593352715253</v>
+      </c>
+      <c r="U36">
+        <v>0.109</v>
+      </c>
+      <c r="V36">
+        <v>0.1579624460815395</v>
+      </c>
+      <c r="W36">
+        <v>0.0917820933771122</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.9291908593031732</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.09546101187200372</v>
+      </c>
+      <c r="C37">
+        <v>22.03031671942999</v>
+      </c>
+      <c r="D37">
+        <v>24.41211671943</v>
+      </c>
+      <c r="E37">
+        <v>17.43380000000001</v>
+      </c>
+      <c r="F37">
+        <v>17.4818</v>
+      </c>
+      <c r="G37">
+        <v>15.1</v>
+      </c>
+      <c r="H37">
+        <v>49.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.9</v>
+      </c>
+      <c r="K37">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L37">
+        <v>1.72</v>
+      </c>
+      <c r="M37">
+        <v>1.9055162</v>
+      </c>
+      <c r="N37">
+        <v>-0.1855162000000004</v>
+      </c>
+      <c r="O37">
+        <v>-0.03153775400000006</v>
+      </c>
+      <c r="P37">
+        <v>-0.1539784460000003</v>
+      </c>
+      <c r="Q37">
+        <v>0.02602155399999964</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09717707711351628</v>
+      </c>
+      <c r="T37">
+        <v>1.861802481218565</v>
+      </c>
+      <c r="U37">
+        <v>0.109</v>
+      </c>
+      <c r="V37">
+        <v>0.1534492333363526</v>
+      </c>
+      <c r="W37">
+        <v>0.09227403356633757</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.9026425490373683</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.09645801187200373</v>
+      </c>
+      <c r="C38">
+        <v>21.25158665570648</v>
+      </c>
+      <c r="D38">
+        <v>24.13286665570648</v>
+      </c>
+      <c r="E38">
+        <v>17.93328</v>
+      </c>
+      <c r="F38">
+        <v>17.98128</v>
+      </c>
+      <c r="G38">
+        <v>15.1</v>
+      </c>
+      <c r="H38">
+        <v>49.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.9</v>
+      </c>
+      <c r="K38">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L38">
+        <v>1.72</v>
+      </c>
+      <c r="M38">
+        <v>1.95995952</v>
+      </c>
+      <c r="N38">
+        <v>-0.2399595199999998</v>
+      </c>
+      <c r="O38">
+        <v>-0.04079311839999996</v>
+      </c>
+      <c r="P38">
+        <v>-0.1991664015999998</v>
+      </c>
+      <c r="Q38">
+        <v>-0.01916640159999985</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09855015644341497</v>
+      </c>
+      <c r="T38">
+        <v>1.890893144987605</v>
+      </c>
+      <c r="U38">
+        <v>0.109</v>
+      </c>
+      <c r="V38">
+        <v>0.1491867546325651</v>
+      </c>
+      <c r="W38">
+        <v>0.09273864374505041</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.8775691448974416</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.09745501187200373</v>
+      </c>
+      <c r="C39">
+        <v>20.47917301818768</v>
+      </c>
+      <c r="D39">
+        <v>23.85993301818768</v>
+      </c>
+      <c r="E39">
+        <v>18.43276</v>
+      </c>
+      <c r="F39">
+        <v>18.48076</v>
+      </c>
+      <c r="G39">
+        <v>15.1</v>
+      </c>
+      <c r="H39">
+        <v>49.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.9</v>
+      </c>
+      <c r="K39">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L39">
+        <v>1.72</v>
+      </c>
+      <c r="M39">
+        <v>2.01440284</v>
+      </c>
+      <c r="N39">
+        <v>-0.2944028399999998</v>
+      </c>
+      <c r="O39">
+        <v>-0.05004848279999997</v>
+      </c>
+      <c r="P39">
+        <v>-0.2443543571999999</v>
+      </c>
+      <c r="Q39">
+        <v>-0.06435435719999993</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09996682559331044</v>
+      </c>
+      <c r="T39">
+        <v>1.92090732189217</v>
+      </c>
+      <c r="U39">
+        <v>0.109</v>
+      </c>
+      <c r="V39">
+        <v>0.1451546801830363</v>
+      </c>
+      <c r="W39">
+        <v>0.09317813986004904</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.8538510599002135</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.09845201187200373</v>
+      </c>
+      <c r="C40">
+        <v>19.7128638943168</v>
+      </c>
+      <c r="D40">
+        <v>23.5931038943168</v>
+      </c>
+      <c r="E40">
+        <v>18.93224</v>
+      </c>
+      <c r="F40">
+        <v>18.98024</v>
+      </c>
+      <c r="G40">
+        <v>15.1</v>
+      </c>
+      <c r="H40">
+        <v>49.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.9</v>
+      </c>
+      <c r="K40">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L40">
+        <v>1.72</v>
+      </c>
+      <c r="M40">
+        <v>2.06884616</v>
+      </c>
+      <c r="N40">
+        <v>-0.3488461600000001</v>
+      </c>
+      <c r="O40">
+        <v>-0.05930384720000002</v>
+      </c>
+      <c r="P40">
+        <v>-0.2895423128000001</v>
+      </c>
+      <c r="Q40">
+        <v>-0.1095423128000002</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1014291937480413</v>
+      </c>
+      <c r="T40">
+        <v>1.951889698051722</v>
+      </c>
+      <c r="U40">
+        <v>0.109</v>
+      </c>
+      <c r="V40">
+        <v>0.1413348201782196</v>
+      </c>
+      <c r="W40">
+        <v>0.09359450460057407</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.8313812951659972</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.09944901187200372</v>
+      </c>
+      <c r="C41">
+        <v>18.95245674609657</v>
+      </c>
+      <c r="D41">
+        <v>23.33217674609657</v>
+      </c>
+      <c r="E41">
+        <v>19.43172</v>
+      </c>
+      <c r="F41">
+        <v>19.47972</v>
+      </c>
+      <c r="G41">
+        <v>15.1</v>
+      </c>
+      <c r="H41">
+        <v>49.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.9</v>
+      </c>
+      <c r="K41">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L41">
+        <v>1.72</v>
+      </c>
+      <c r="M41">
+        <v>2.12328948</v>
+      </c>
+      <c r="N41">
+        <v>-0.40328948</v>
+      </c>
+      <c r="O41">
+        <v>-0.0685592116</v>
+      </c>
+      <c r="P41">
+        <v>-0.3347302684</v>
+      </c>
+      <c r="Q41">
+        <v>-0.1547302684</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1029395083996485</v>
+      </c>
+      <c r="T41">
+        <v>1.983887889823061</v>
+      </c>
+      <c r="U41">
+        <v>0.109</v>
+      </c>
+      <c r="V41">
+        <v>0.1377108504300601</v>
+      </c>
+      <c r="W41">
+        <v>0.09398951730312345</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.8100638260591768</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1136474561388706</v>
+      </c>
+      <c r="C42">
+        <v>15.27819296686139</v>
+      </c>
+      <c r="D42">
+        <v>20.1573929668614</v>
+      </c>
+      <c r="E42">
+        <v>19.9312</v>
+      </c>
+      <c r="F42">
+        <v>19.9792</v>
+      </c>
+      <c r="G42">
+        <v>15.1</v>
+      </c>
+      <c r="H42">
+        <v>49.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.9</v>
+      </c>
+      <c r="K42">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L42">
+        <v>1.72</v>
+      </c>
+      <c r="M42">
+        <v>2.80108384</v>
+      </c>
+      <c r="N42">
+        <v>-1.08108384</v>
+      </c>
+      <c r="O42">
+        <v>-0.1837842528</v>
+      </c>
+      <c r="P42">
+        <v>-0.8972995872</v>
+      </c>
+      <c r="Q42">
+        <v>-0.7172995872000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1057025739844208</v>
+      </c>
+      <c r="T42">
+        <v>2.04242741492417</v>
+      </c>
+      <c r="U42">
+        <v>0.1402</v>
+      </c>
+      <c r="V42">
+        <v>0.1043881642614453</v>
+      </c>
+      <c r="W42">
+        <v>0.1255647793705454</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.6140480250673254</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1149564561388706</v>
+      </c>
+      <c r="C43">
+        <v>14.52897879672284</v>
+      </c>
+      <c r="D43">
+        <v>19.90765879672283</v>
+      </c>
+      <c r="E43">
+        <v>20.43068</v>
+      </c>
+      <c r="F43">
+        <v>20.47868</v>
+      </c>
+      <c r="G43">
+        <v>15.1</v>
+      </c>
+      <c r="H43">
+        <v>49.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.9</v>
+      </c>
+      <c r="K43">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L43">
+        <v>1.72</v>
+      </c>
+      <c r="M43">
+        <v>2.871110936</v>
+      </c>
+      <c r="N43">
+        <v>-1.151110936</v>
+      </c>
+      <c r="O43">
+        <v>-0.19568885912</v>
+      </c>
+      <c r="P43">
+        <v>-0.95542207688</v>
+      </c>
+      <c r="Q43">
+        <v>-0.7754220768800001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1073365159163601</v>
+      </c>
+      <c r="T43">
+        <v>2.077044828736444</v>
+      </c>
+      <c r="U43">
+        <v>0.1402</v>
+      </c>
+      <c r="V43">
+        <v>0.1018421114745808</v>
+      </c>
+      <c r="W43">
+        <v>0.1259217359712638</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.5990712439681223</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1162654561388706</v>
+      </c>
+      <c r="C44">
+        <v>13.78587691816909</v>
+      </c>
+      <c r="D44">
+        <v>19.66403691816909</v>
+      </c>
+      <c r="E44">
+        <v>20.93016</v>
+      </c>
+      <c r="F44">
+        <v>20.97816</v>
+      </c>
+      <c r="G44">
+        <v>15.1</v>
+      </c>
+      <c r="H44">
+        <v>49.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.9</v>
+      </c>
+      <c r="K44">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L44">
+        <v>1.72</v>
+      </c>
+      <c r="M44">
+        <v>2.941138032</v>
+      </c>
+      <c r="N44">
+        <v>-1.221138032</v>
+      </c>
+      <c r="O44">
+        <v>-0.20759346544</v>
+      </c>
+      <c r="P44">
+        <v>-1.01354456656</v>
+      </c>
+      <c r="Q44">
+        <v>-0.8335445665599996</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1090268006735387</v>
+      </c>
+      <c r="T44">
+        <v>2.112855946473279</v>
+      </c>
+      <c r="U44">
+        <v>0.1402</v>
+      </c>
+      <c r="V44">
+        <v>0.09941729929661459</v>
+      </c>
+      <c r="W44">
+        <v>0.1262616946386146</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.5848076429212623</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1175744561388706</v>
+      </c>
+      <c r="C45">
+        <v>13.04866564484947</v>
+      </c>
+      <c r="D45">
+        <v>19.42630564484947</v>
+      </c>
+      <c r="E45">
+        <v>21.42964</v>
+      </c>
+      <c r="F45">
+        <v>21.47764</v>
+      </c>
+      <c r="G45">
+        <v>15.1</v>
+      </c>
+      <c r="H45">
+        <v>49.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.9</v>
+      </c>
+      <c r="K45">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L45">
+        <v>1.72</v>
+      </c>
+      <c r="M45">
+        <v>3.011165128</v>
+      </c>
+      <c r="N45">
+        <v>-1.291165128</v>
+      </c>
+      <c r="O45">
+        <v>-0.21949807176</v>
+      </c>
+      <c r="P45">
+        <v>-1.07166705624</v>
+      </c>
+      <c r="Q45">
+        <v>-0.89166705624</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1107763936678114</v>
+      </c>
+      <c r="T45">
+        <v>2.14992359465702</v>
+      </c>
+      <c r="U45">
+        <v>0.1402</v>
+      </c>
+      <c r="V45">
+        <v>0.09710526908041425</v>
+      </c>
+      <c r="W45">
+        <v>0.1265858412749259</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.5712074651789073</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1188834561388706</v>
+      </c>
+      <c r="C46">
+        <v>12.31713388279441</v>
+      </c>
+      <c r="D46">
+        <v>19.19425388279441</v>
+      </c>
+      <c r="E46">
+        <v>21.92912</v>
+      </c>
+      <c r="F46">
+        <v>21.97712</v>
+      </c>
+      <c r="G46">
+        <v>15.1</v>
+      </c>
+      <c r="H46">
+        <v>49.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.9</v>
+      </c>
+      <c r="K46">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L46">
+        <v>1.72</v>
+      </c>
+      <c r="M46">
+        <v>3.081192224</v>
+      </c>
+      <c r="N46">
+        <v>-1.361192224</v>
+      </c>
+      <c r="O46">
+        <v>-0.23140267808</v>
+      </c>
+      <c r="P46">
+        <v>-1.12978954592</v>
+      </c>
+      <c r="Q46">
+        <v>-0.9497895459199996</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1125884721261652</v>
+      </c>
+      <c r="T46">
+        <v>2.188315087418753</v>
+      </c>
+      <c r="U46">
+        <v>0.1402</v>
+      </c>
+      <c r="V46">
+        <v>0.09489833114676849</v>
+      </c>
+      <c r="W46">
+        <v>0.126895253973223</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.5582254773339322</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1201924561388706</v>
+      </c>
+      <c r="C47">
+        <v>11.59108050524099</v>
+      </c>
+      <c r="D47">
+        <v>18.96768050524099</v>
+      </c>
+      <c r="E47">
+        <v>22.4286</v>
+      </c>
+      <c r="F47">
+        <v>22.4766</v>
+      </c>
+      <c r="G47">
+        <v>15.1</v>
+      </c>
+      <c r="H47">
+        <v>49.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.9</v>
+      </c>
+      <c r="K47">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L47">
+        <v>1.72</v>
+      </c>
+      <c r="M47">
+        <v>3.15121932</v>
+      </c>
+      <c r="N47">
+        <v>-1.43121932</v>
+      </c>
+      <c r="O47">
+        <v>-0.2433072844</v>
+      </c>
+      <c r="P47">
+        <v>-1.1879120356</v>
+      </c>
+      <c r="Q47">
+        <v>-1.0079120356</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1144664443466409</v>
+      </c>
+      <c r="T47">
+        <v>2.22810263446273</v>
+      </c>
+      <c r="U47">
+        <v>0.1402</v>
+      </c>
+      <c r="V47">
+        <v>0.09278947934350695</v>
+      </c>
+      <c r="W47">
+        <v>0.1271909149960403</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.5458204667265114</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1215014561388706</v>
+      </c>
+      <c r="C48">
+        <v>10.87031377122009</v>
+      </c>
+      <c r="D48">
+        <v>18.74639377122009</v>
+      </c>
+      <c r="E48">
+        <v>22.92808</v>
+      </c>
+      <c r="F48">
+        <v>22.97608</v>
+      </c>
+      <c r="G48">
+        <v>15.1</v>
+      </c>
+      <c r="H48">
+        <v>49.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.9</v>
+      </c>
+      <c r="K48">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L48">
+        <v>1.72</v>
+      </c>
+      <c r="M48">
+        <v>3.221246416</v>
+      </c>
+      <c r="N48">
+        <v>-1.501246416</v>
+      </c>
+      <c r="O48">
+        <v>-0.2552118907199999</v>
+      </c>
+      <c r="P48">
+        <v>-1.24603452528</v>
+      </c>
+      <c r="Q48">
+        <v>-1.06603452528</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1164139710938009</v>
+      </c>
+      <c r="T48">
+        <v>2.269363794360189</v>
+      </c>
+      <c r="U48">
+        <v>0.1402</v>
+      </c>
+      <c r="V48">
+        <v>0.09077231674908288</v>
+      </c>
+      <c r="W48">
+        <v>0.1274737211917786</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.53395480440637</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1228104561388706</v>
+      </c>
+      <c r="C49">
+        <v>10.15465078437256</v>
+      </c>
+      <c r="D49">
+        <v>18.53021078437256</v>
+      </c>
+      <c r="E49">
+        <v>23.42756</v>
+      </c>
+      <c r="F49">
+        <v>23.47556</v>
+      </c>
+      <c r="G49">
+        <v>15.1</v>
+      </c>
+      <c r="H49">
+        <v>49.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.9</v>
+      </c>
+      <c r="K49">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L49">
+        <v>1.72</v>
+      </c>
+      <c r="M49">
+        <v>3.291273512</v>
+      </c>
+      <c r="N49">
+        <v>-1.571273512</v>
+      </c>
+      <c r="O49">
+        <v>-0.26711649704</v>
+      </c>
+      <c r="P49">
+        <v>-1.30415701496</v>
+      </c>
+      <c r="Q49">
+        <v>-1.12415701496</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1184349894163254</v>
+      </c>
+      <c r="T49">
+        <v>2.312181979159437</v>
+      </c>
+      <c r="U49">
+        <v>0.1402</v>
+      </c>
+      <c r="V49">
+        <v>0.08884099086080452</v>
+      </c>
+      <c r="W49">
+        <v>0.1277444930813152</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.5225940638870854</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1241194561388706</v>
+      </c>
+      <c r="C50">
+        <v>9.443916988784061</v>
+      </c>
+      <c r="D50">
+        <v>18.31895698878406</v>
+      </c>
+      <c r="E50">
+        <v>23.92704</v>
+      </c>
+      <c r="F50">
+        <v>23.97504</v>
+      </c>
+      <c r="G50">
+        <v>15.1</v>
+      </c>
+      <c r="H50">
+        <v>49.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.9</v>
+      </c>
+      <c r="K50">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L50">
+        <v>1.72</v>
+      </c>
+      <c r="M50">
+        <v>3.361300608</v>
+      </c>
+      <c r="N50">
+        <v>-1.641300608</v>
+      </c>
+      <c r="O50">
+        <v>-0.27902110336</v>
+      </c>
+      <c r="P50">
+        <v>-1.36227950464</v>
+      </c>
+      <c r="Q50">
+        <v>-1.18227950464</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1205337392127932</v>
+      </c>
+      <c r="T50">
+        <v>2.356647017220196</v>
+      </c>
+      <c r="U50">
+        <v>0.1402</v>
+      </c>
+      <c r="V50">
+        <v>0.08699013688453777</v>
+      </c>
+      <c r="W50">
+        <v>0.1280039828087878</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.5117066875561045</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1254284561388706</v>
+      </c>
+      <c r="C51">
+        <v>8.737945698917585</v>
+      </c>
+      <c r="D51">
+        <v>18.11246569891758</v>
+      </c>
+      <c r="E51">
+        <v>24.42652</v>
+      </c>
+      <c r="F51">
+        <v>24.47452</v>
+      </c>
+      <c r="G51">
+        <v>15.1</v>
+      </c>
+      <c r="H51">
+        <v>49.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.9</v>
+      </c>
+      <c r="K51">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L51">
+        <v>1.72</v>
+      </c>
+      <c r="M51">
+        <v>3.431327704</v>
+      </c>
+      <c r="N51">
+        <v>-1.711327704</v>
+      </c>
+      <c r="O51">
+        <v>-0.29092570968</v>
+      </c>
+      <c r="P51">
+        <v>-1.42040199432</v>
+      </c>
+      <c r="Q51">
+        <v>-1.24040199432</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.122714792922848</v>
+      </c>
+      <c r="T51">
+        <v>2.402855782263729</v>
+      </c>
+      <c r="U51">
+        <v>0.1402</v>
+      </c>
+      <c r="V51">
+        <v>0.08521482796852681</v>
+      </c>
+      <c r="W51">
+        <v>0.1282528811188125</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.5012636939325106</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1490842918365922</v>
+      </c>
+      <c r="C52">
+        <v>5.173274989541671</v>
+      </c>
+      <c r="D52">
+        <v>15.04727498954167</v>
+      </c>
+      <c r="E52">
+        <v>24.926</v>
+      </c>
+      <c r="F52">
+        <v>24.974</v>
+      </c>
+      <c r="G52">
+        <v>15.1</v>
+      </c>
+      <c r="H52">
+        <v>49.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.9</v>
+      </c>
+      <c r="K52">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L52">
+        <v>1.72</v>
+      </c>
+      <c r="M52">
+        <v>4.5877238</v>
+      </c>
+      <c r="N52">
+        <v>-2.8677238</v>
+      </c>
+      <c r="O52">
+        <v>-0.4875130460000001</v>
+      </c>
+      <c r="P52">
+        <v>-2.380210754</v>
+      </c>
+      <c r="Q52">
+        <v>-2.200210754</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1261767601767481</v>
+      </c>
+      <c r="T52">
+        <v>2.476202546117546</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.06373531030791349</v>
+      </c>
+      <c r="W52">
+        <v>0.1719918234964363</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.3749135900465498</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1508282918365922</v>
+      </c>
+      <c r="C53">
+        <v>4.488373069717618</v>
+      </c>
+      <c r="D53">
+        <v>14.86185306971762</v>
+      </c>
+      <c r="E53">
+        <v>25.42548</v>
+      </c>
+      <c r="F53">
+        <v>25.47348</v>
+      </c>
+      <c r="G53">
+        <v>15.1</v>
+      </c>
+      <c r="H53">
+        <v>49.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.9</v>
+      </c>
+      <c r="K53">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L53">
+        <v>1.72</v>
+      </c>
+      <c r="M53">
+        <v>4.679478276</v>
+      </c>
+      <c r="N53">
+        <v>-2.959478276</v>
+      </c>
+      <c r="O53">
+        <v>-0.5031113069200002</v>
+      </c>
+      <c r="P53">
+        <v>-2.45636696908</v>
+      </c>
+      <c r="Q53">
+        <v>-2.276366969080001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1285620001803552</v>
+      </c>
+      <c r="T53">
+        <v>2.526737291956679</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.06248559834109164</v>
+      </c>
+      <c r="W53">
+        <v>0.1722213955847414</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.3675623431828919</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1525722918365922</v>
+      </c>
+      <c r="C54">
+        <v>3.80798529319409</v>
+      </c>
+      <c r="D54">
+        <v>14.68094529319409</v>
+      </c>
+      <c r="E54">
+        <v>25.92496</v>
+      </c>
+      <c r="F54">
+        <v>25.97296</v>
+      </c>
+      <c r="G54">
+        <v>15.1</v>
+      </c>
+      <c r="H54">
+        <v>49.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.9</v>
+      </c>
+      <c r="K54">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L54">
+        <v>1.72</v>
+      </c>
+      <c r="M54">
+        <v>4.771232752</v>
+      </c>
+      <c r="N54">
+        <v>-3.051232752000001</v>
+      </c>
+      <c r="O54">
+        <v>-0.5187095678400001</v>
+      </c>
+      <c r="P54">
+        <v>-2.53252318416</v>
+      </c>
+      <c r="Q54">
+        <v>-2.352523184160001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1310466251841126</v>
+      </c>
+      <c r="T54">
+        <v>2.579377652205777</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.06128395221914757</v>
+      </c>
+      <c r="W54">
+        <v>0.1724421379773426</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.360493836583221</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1543162918365922</v>
+      </c>
+      <c r="C55">
+        <v>3.131948795527045</v>
+      </c>
+      <c r="D55">
+        <v>14.50438879552705</v>
+      </c>
+      <c r="E55">
+        <v>26.42444</v>
+      </c>
+      <c r="F55">
+        <v>26.47244</v>
+      </c>
+      <c r="G55">
+        <v>15.1</v>
+      </c>
+      <c r="H55">
+        <v>49.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.9</v>
+      </c>
+      <c r="K55">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L55">
+        <v>1.72</v>
+      </c>
+      <c r="M55">
+        <v>4.862987228000001</v>
+      </c>
+      <c r="N55">
+        <v>-3.142987228000001</v>
+      </c>
+      <c r="O55">
+        <v>-0.5343078287600002</v>
+      </c>
+      <c r="P55">
+        <v>-2.608679399240001</v>
+      </c>
+      <c r="Q55">
+        <v>-2.428679399240001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1336369789114342</v>
+      </c>
+      <c r="T55">
+        <v>2.634258027784623</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.06012765123388063</v>
+      </c>
+      <c r="W55">
+        <v>0.1726545504683361</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.3536920660816507</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1560602918365922</v>
+      </c>
+      <c r="C56">
+        <v>2.460108453755822</v>
+      </c>
+      <c r="D56">
+        <v>14.33202845375582</v>
+      </c>
+      <c r="E56">
+        <v>26.92392</v>
+      </c>
+      <c r="F56">
+        <v>26.97192</v>
+      </c>
+      <c r="G56">
+        <v>15.1</v>
+      </c>
+      <c r="H56">
+        <v>49.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.9</v>
+      </c>
+      <c r="K56">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L56">
+        <v>1.72</v>
+      </c>
+      <c r="M56">
+        <v>4.954741704</v>
+      </c>
+      <c r="N56">
+        <v>-3.234741704</v>
+      </c>
+      <c r="O56">
+        <v>-0.5499060896800001</v>
+      </c>
+      <c r="P56">
+        <v>-2.68483561432</v>
+      </c>
+      <c r="Q56">
+        <v>-2.50483561432</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1363399567138567</v>
+      </c>
+      <c r="T56">
+        <v>2.691524506649506</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.059014176211031</v>
+      </c>
+      <c r="W56">
+        <v>0.1728590958300336</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.3471422130060646</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1578042918365922</v>
+      </c>
+      <c r="C57">
+        <v>1.792316431832212</v>
+      </c>
+      <c r="D57">
+        <v>14.16371643183222</v>
+      </c>
+      <c r="E57">
+        <v>27.4234</v>
+      </c>
+      <c r="F57">
+        <v>27.4714</v>
+      </c>
+      <c r="G57">
+        <v>15.1</v>
+      </c>
+      <c r="H57">
+        <v>49.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.9</v>
+      </c>
+      <c r="K57">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L57">
+        <v>1.72</v>
+      </c>
+      <c r="M57">
+        <v>5.046496180000001</v>
+      </c>
+      <c r="N57">
+        <v>-3.326496180000001</v>
+      </c>
+      <c r="O57">
+        <v>-0.5655043506000003</v>
+      </c>
+      <c r="P57">
+        <v>-2.760991829400001</v>
+      </c>
+      <c r="Q57">
+        <v>-2.580991829400001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1391630668630535</v>
+      </c>
+      <c r="T57">
+        <v>2.751336162352829</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.05794119118901224</v>
+      </c>
+      <c r="W57">
+        <v>0.1730562031785784</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.3408305364059543</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1595482918365922</v>
+      </c>
+      <c r="C58">
+        <v>1.128431757707997</v>
+      </c>
+      <c r="D58">
+        <v>13.999311757708</v>
+      </c>
+      <c r="E58">
+        <v>27.92288000000001</v>
+      </c>
+      <c r="F58">
+        <v>27.97088</v>
+      </c>
+      <c r="G58">
+        <v>15.1</v>
+      </c>
+      <c r="H58">
+        <v>49.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.9</v>
+      </c>
+      <c r="K58">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L58">
+        <v>1.72</v>
+      </c>
+      <c r="M58">
+        <v>5.138250656000001</v>
+      </c>
+      <c r="N58">
+        <v>-3.418250656000001</v>
+      </c>
+      <c r="O58">
+        <v>-0.5811026115200003</v>
+      </c>
+      <c r="P58">
+        <v>-2.837148044480001</v>
+      </c>
+      <c r="Q58">
+        <v>-2.657148044480001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1421145002008502</v>
+      </c>
+      <c r="T58">
+        <v>2.813866529679029</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.05690652706063702</v>
+      </c>
+      <c r="W58">
+        <v>0.173246270978961</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.3347442768272766</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1612922918365922</v>
+      </c>
+      <c r="C59">
+        <v>0.4683199295381115</v>
+      </c>
+      <c r="D59">
+        <v>13.83867992953811</v>
+      </c>
+      <c r="E59">
+        <v>28.42236</v>
+      </c>
+      <c r="F59">
+        <v>28.47036</v>
+      </c>
+      <c r="G59">
+        <v>15.1</v>
+      </c>
+      <c r="H59">
+        <v>49.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.9</v>
+      </c>
+      <c r="K59">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L59">
+        <v>1.72</v>
+      </c>
+      <c r="M59">
+        <v>5.230005132000001</v>
+      </c>
+      <c r="N59">
+        <v>-3.510005132000001</v>
+      </c>
+      <c r="O59">
+        <v>-0.5967008724400001</v>
+      </c>
+      <c r="P59">
+        <v>-2.913304259560001</v>
+      </c>
+      <c r="Q59">
+        <v>-2.733304259560001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1452032095078467</v>
+      </c>
+      <c r="T59">
+        <v>2.879305286183193</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.05590816693676621</v>
+      </c>
+      <c r="W59">
+        <v>0.173429669733716</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.3288715702162718</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1630362918365922</v>
+      </c>
+      <c r="C60">
+        <v>-0.1881474513125099</v>
+      </c>
+      <c r="D60">
+        <v>13.68169254868749</v>
+      </c>
+      <c r="E60">
+        <v>28.92184</v>
+      </c>
+      <c r="F60">
+        <v>28.96984</v>
+      </c>
+      <c r="G60">
+        <v>15.1</v>
+      </c>
+      <c r="H60">
+        <v>49.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.9</v>
+      </c>
+      <c r="K60">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L60">
+        <v>1.72</v>
+      </c>
+      <c r="M60">
+        <v>5.321759608</v>
+      </c>
+      <c r="N60">
+        <v>-3.601759608</v>
+      </c>
+      <c r="O60">
+        <v>-0.6122991333600001</v>
+      </c>
+      <c r="P60">
+        <v>-2.98946047464</v>
+      </c>
+      <c r="Q60">
+        <v>-2.80946047464</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1484390002104144</v>
+      </c>
+      <c r="T60">
+        <v>2.947860173949458</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.05494423302406335</v>
+      </c>
+      <c r="W60">
+        <v>0.1736067443934796</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.3232013707297844</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1647802918365922</v>
+      </c>
+      <c r="C61">
+        <v>-0.8410930225631041</v>
+      </c>
+      <c r="D61">
+        <v>13.5282269774369</v>
+      </c>
+      <c r="E61">
+        <v>29.42132</v>
+      </c>
+      <c r="F61">
+        <v>29.46932</v>
+      </c>
+      <c r="G61">
+        <v>15.1</v>
+      </c>
+      <c r="H61">
+        <v>49.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.9</v>
+      </c>
+      <c r="K61">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L61">
+        <v>1.72</v>
+      </c>
+      <c r="M61">
+        <v>5.413514084</v>
+      </c>
+      <c r="N61">
+        <v>-3.693514084</v>
+      </c>
+      <c r="O61">
+        <v>-0.6278973942800001</v>
+      </c>
+      <c r="P61">
+        <v>-3.06561668972</v>
+      </c>
+      <c r="Q61">
+        <v>-2.88561668972</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.151832634361888</v>
+      </c>
+      <c r="T61">
+        <v>3.019759202582372</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.05401297483721482</v>
+      </c>
+      <c r="W61">
+        <v>0.1737778165224036</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.3177233813953813</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1665242918365922</v>
+      </c>
+      <c r="C62">
+        <v>-1.490633980529896</v>
+      </c>
+      <c r="D62">
+        <v>13.3781660194701</v>
+      </c>
+      <c r="E62">
+        <v>29.9208</v>
+      </c>
+      <c r="F62">
+        <v>29.9688</v>
+      </c>
+      <c r="G62">
+        <v>15.1</v>
+      </c>
+      <c r="H62">
+        <v>49.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.9</v>
+      </c>
+      <c r="K62">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L62">
+        <v>1.72</v>
+      </c>
+      <c r="M62">
+        <v>5.505268559999999</v>
+      </c>
+      <c r="N62">
+        <v>-3.78526856</v>
+      </c>
+      <c r="O62">
+        <v>-0.6434956552</v>
+      </c>
+      <c r="P62">
+        <v>-3.1417729048</v>
+      </c>
+      <c r="Q62">
+        <v>-2.9617729048</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1553959502209352</v>
+      </c>
+      <c r="T62">
+        <v>3.095253182646932</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.05311275858992791</v>
+      </c>
+      <c r="W62">
+        <v>0.1739431862470302</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.3124279917054582</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1682682918365922</v>
+      </c>
+      <c r="C63">
+        <v>-2.136882378607289</v>
+      </c>
+      <c r="D63">
+        <v>13.23139762139271</v>
+      </c>
+      <c r="E63">
+        <v>30.42028</v>
+      </c>
+      <c r="F63">
+        <v>30.46828</v>
+      </c>
+      <c r="G63">
+        <v>15.1</v>
+      </c>
+      <c r="H63">
+        <v>49.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.9</v>
+      </c>
+      <c r="K63">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L63">
+        <v>1.72</v>
+      </c>
+      <c r="M63">
+        <v>5.597023036</v>
+      </c>
+      <c r="N63">
+        <v>-3.877023036000001</v>
+      </c>
+      <c r="O63">
+        <v>-0.6590939161200001</v>
+      </c>
+      <c r="P63">
+        <v>-3.21792911988</v>
+      </c>
+      <c r="Q63">
+        <v>-3.03792911988</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1591420002266002</v>
+      </c>
+      <c r="T63">
+        <v>3.174618648868648</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.05224205762943728</v>
+      </c>
+      <c r="W63">
+        <v>0.1741031340134724</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.307306221349631</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1700122918365922</v>
+      </c>
+      <c r="C64">
+        <v>-2.779945406314788</v>
+      </c>
+      <c r="D64">
+        <v>13.08781459368521</v>
+      </c>
+      <c r="E64">
+        <v>30.91976</v>
+      </c>
+      <c r="F64">
+        <v>30.96776</v>
+      </c>
+      <c r="G64">
+        <v>15.1</v>
+      </c>
+      <c r="H64">
+        <v>49.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.9</v>
+      </c>
+      <c r="K64">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L64">
+        <v>1.72</v>
+      </c>
+      <c r="M64">
+        <v>5.688777512</v>
+      </c>
+      <c r="N64">
+        <v>-3.968777512</v>
+      </c>
+      <c r="O64">
+        <v>-0.6746921770400001</v>
+      </c>
+      <c r="P64">
+        <v>-3.29408533496</v>
+      </c>
+      <c r="Q64">
+        <v>-3.11408533496</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1630852107588791</v>
+      </c>
+      <c r="T64">
+        <v>3.258161244891507</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.05139944379670443</v>
+      </c>
+      <c r="W64">
+        <v>0.1742579221745454</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.302349669392379</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1717562918365922</v>
+      </c>
+      <c r="C65">
+        <v>-3.419925650370256</v>
+      </c>
+      <c r="D65">
+        <v>12.94731434962975</v>
+      </c>
+      <c r="E65">
+        <v>31.41924</v>
+      </c>
+      <c r="F65">
+        <v>31.46724</v>
+      </c>
+      <c r="G65">
+        <v>15.1</v>
+      </c>
+      <c r="H65">
+        <v>49.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.9</v>
+      </c>
+      <c r="K65">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L65">
+        <v>1.72</v>
+      </c>
+      <c r="M65">
+        <v>5.780531988</v>
+      </c>
+      <c r="N65">
+        <v>-4.060531988</v>
+      </c>
+      <c r="O65">
+        <v>-0.6902904379600001</v>
+      </c>
+      <c r="P65">
+        <v>-3.37024155004</v>
+      </c>
+      <c r="Q65">
+        <v>-3.190241550040001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1672415678064164</v>
+      </c>
+      <c r="T65">
+        <v>3.346219656915602</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.05058357960945514</v>
+      </c>
+      <c r="W65">
+        <v>0.1744077964257431</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2975504682909126</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1735002918365922</v>
+      </c>
+      <c r="C66">
+        <v>-4.056921339125701</v>
+      </c>
+      <c r="D66">
+        <v>12.8097986608743</v>
+      </c>
+      <c r="E66">
+        <v>31.91872</v>
+      </c>
+      <c r="F66">
+        <v>31.96672</v>
+      </c>
+      <c r="G66">
+        <v>15.1</v>
+      </c>
+      <c r="H66">
+        <v>49.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.9</v>
+      </c>
+      <c r="K66">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L66">
+        <v>1.72</v>
+      </c>
+      <c r="M66">
+        <v>5.872286464</v>
+      </c>
+      <c r="N66">
+        <v>-4.152286464</v>
+      </c>
+      <c r="O66">
+        <v>-0.7058886988800001</v>
+      </c>
+      <c r="P66">
+        <v>-3.44639776512</v>
+      </c>
+      <c r="Q66">
+        <v>-3.266397765120001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1716288335788169</v>
+      </c>
+      <c r="T66">
+        <v>3.439170202941035</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.04979321117805741</v>
+      </c>
+      <c r="W66">
+        <v>0.1745529871065908</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.292901242223867</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1752442918365922</v>
+      </c>
+      <c r="C67">
+        <v>-4.691026571589635</v>
+      </c>
+      <c r="D67">
+        <v>12.67517342841037</v>
+      </c>
+      <c r="E67">
+        <v>32.4182</v>
+      </c>
+      <c r="F67">
+        <v>32.4662</v>
+      </c>
+      <c r="G67">
+        <v>15.1</v>
+      </c>
+      <c r="H67">
+        <v>49.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.9</v>
+      </c>
+      <c r="K67">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L67">
+        <v>1.72</v>
+      </c>
+      <c r="M67">
+        <v>5.96404094</v>
+      </c>
+      <c r="N67">
+        <v>-4.244040940000001</v>
+      </c>
+      <c r="O67">
+        <v>-0.7214869598000001</v>
+      </c>
+      <c r="P67">
+        <v>-3.522553980200001</v>
+      </c>
+      <c r="Q67">
+        <v>-3.342553980200001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1762668002524974</v>
+      </c>
+      <c r="T67">
+        <v>3.537432208739351</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.04902716177531807</v>
+      </c>
+      <c r="W67">
+        <v>0.1746937103818741</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.2883950692665768</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1769882918365922</v>
+      </c>
+      <c r="C68">
+        <v>-5.322331532158074</v>
+      </c>
+      <c r="D68">
+        <v>12.54334846784193</v>
+      </c>
+      <c r="E68">
+        <v>32.91768</v>
+      </c>
+      <c r="F68">
+        <v>32.96568</v>
+      </c>
+      <c r="G68">
+        <v>15.1</v>
+      </c>
+      <c r="H68">
+        <v>49.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.9</v>
+      </c>
+      <c r="K68">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L68">
+        <v>1.72</v>
+      </c>
+      <c r="M68">
+        <v>6.055795416</v>
+      </c>
+      <c r="N68">
+        <v>-4.335795416</v>
+      </c>
+      <c r="O68">
+        <v>-0.73708522072</v>
+      </c>
+      <c r="P68">
+        <v>-3.59871019528</v>
+      </c>
+      <c r="Q68">
+        <v>-3.41871019528</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1811775884952179</v>
+      </c>
+      <c r="T68">
+        <v>3.641474332525803</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.04828432599084356</v>
+      </c>
+      <c r="W68">
+        <v>0.174830169315482</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.284025447004962</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1787322918365922</v>
+      </c>
+      <c r="C69">
+        <v>-5.950922692083925</v>
+      </c>
+      <c r="D69">
+        <v>12.41423730791608</v>
+      </c>
+      <c r="E69">
+        <v>33.41716</v>
+      </c>
+      <c r="F69">
+        <v>33.46516</v>
+      </c>
+      <c r="G69">
+        <v>15.1</v>
+      </c>
+      <c r="H69">
+        <v>49.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.9</v>
+      </c>
+      <c r="K69">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L69">
+        <v>1.72</v>
+      </c>
+      <c r="M69">
+        <v>6.147549892000001</v>
+      </c>
+      <c r="N69">
+        <v>-4.427549892000001</v>
+      </c>
+      <c r="O69">
+        <v>-0.7526834816400002</v>
+      </c>
+      <c r="P69">
+        <v>-3.674866410360001</v>
+      </c>
+      <c r="Q69">
+        <v>-3.494866410360001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1863860002678002</v>
+      </c>
+      <c r="T69">
+        <v>3.751822039572039</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.04756366440889066</v>
+      </c>
+      <c r="W69">
+        <v>0.1749625548480868</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.2797862612287685</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1804762918365922</v>
+      </c>
+      <c r="C70">
+        <v>-6.576882998630538</v>
+      </c>
+      <c r="D70">
+        <v>12.28775700136946</v>
+      </c>
+      <c r="E70">
+        <v>33.91664</v>
+      </c>
+      <c r="F70">
+        <v>33.96464</v>
+      </c>
+      <c r="G70">
+        <v>15.1</v>
+      </c>
+      <c r="H70">
+        <v>49.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.9</v>
+      </c>
+      <c r="K70">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L70">
+        <v>1.72</v>
+      </c>
+      <c r="M70">
+        <v>6.239304368000001</v>
+      </c>
+      <c r="N70">
+        <v>-4.519304368000001</v>
+      </c>
+      <c r="O70">
+        <v>-0.7682817425600003</v>
+      </c>
+      <c r="P70">
+        <v>-3.751022625440001</v>
+      </c>
+      <c r="Q70">
+        <v>-3.571022625440001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.191919937776169</v>
+      </c>
+      <c r="T70">
+        <v>3.869066478308665</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.04686419875581873</v>
+      </c>
+      <c r="W70">
+        <v>0.1750910466885561</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.275671757387169</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1822202918365922</v>
+      </c>
+      <c r="C71">
+        <v>-7.200292052779023</v>
+      </c>
+      <c r="D71">
+        <v>12.16382794722098</v>
+      </c>
+      <c r="E71">
+        <v>34.41612</v>
+      </c>
+      <c r="F71">
+        <v>34.46412</v>
+      </c>
+      <c r="G71">
+        <v>15.1</v>
+      </c>
+      <c r="H71">
+        <v>49.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.9</v>
+      </c>
+      <c r="K71">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L71">
+        <v>1.72</v>
+      </c>
+      <c r="M71">
+        <v>6.331058844</v>
+      </c>
+      <c r="N71">
+        <v>-4.611058844</v>
+      </c>
+      <c r="O71">
+        <v>-0.7838800034800001</v>
+      </c>
+      <c r="P71">
+        <v>-3.82717884052</v>
+      </c>
+      <c r="Q71">
+        <v>-3.647178840520001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1978109035108842</v>
+      </c>
+      <c r="T71">
+        <v>3.993875074383139</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.04618500746950252</v>
+      </c>
+      <c r="W71">
+        <v>0.1752158141278524</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.2716765145264853</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1839642918365922</v>
+      </c>
+      <c r="C72">
+        <v>-7.821226276289117</v>
+      </c>
+      <c r="D72">
+        <v>12.04237372371089</v>
+      </c>
+      <c r="E72">
+        <v>34.9156</v>
+      </c>
+      <c r="F72">
+        <v>34.96360000000001</v>
+      </c>
+      <c r="G72">
+        <v>15.1</v>
+      </c>
+      <c r="H72">
+        <v>49.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.9</v>
+      </c>
+      <c r="K72">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L72">
+        <v>1.72</v>
+      </c>
+      <c r="M72">
+        <v>6.422813320000001</v>
+      </c>
+      <c r="N72">
+        <v>-4.702813320000002</v>
+      </c>
+      <c r="O72">
+        <v>-0.7994782644000004</v>
+      </c>
+      <c r="P72">
+        <v>-3.903335055600001</v>
+      </c>
+      <c r="Q72">
+        <v>-3.723335055600002</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2040946002945803</v>
+      </c>
+      <c r="T72">
+        <v>4.127004243529243</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.04552522164850962</v>
+      </c>
+      <c r="W72">
+        <v>0.1753370167831688</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.2677954214618212</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1857082918365922</v>
+      </c>
+      <c r="C73">
+        <v>-8.43975906885062</v>
+      </c>
+      <c r="D73">
+        <v>11.92332093114938</v>
+      </c>
+      <c r="E73">
+        <v>35.41508</v>
+      </c>
+      <c r="F73">
+        <v>35.46308</v>
+      </c>
+      <c r="G73">
+        <v>15.1</v>
+      </c>
+      <c r="H73">
+        <v>49.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.9</v>
+      </c>
+      <c r="K73">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L73">
+        <v>1.72</v>
+      </c>
+      <c r="M73">
+        <v>6.514567796</v>
+      </c>
+      <c r="N73">
+        <v>-4.794567796</v>
+      </c>
+      <c r="O73">
+        <v>-0.8150765253200001</v>
+      </c>
+      <c r="P73">
+        <v>-3.97949127068</v>
+      </c>
+      <c r="Q73">
+        <v>-3.79949127068</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.210811655477152</v>
+      </c>
+      <c r="T73">
+        <v>4.269314734685423</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.04488402134360105</v>
+      </c>
+      <c r="W73">
+        <v>0.1754548052791805</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.264023654962359</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1874522918365922</v>
+      </c>
+      <c r="C74">
+        <v>-9.055960956004316</v>
+      </c>
+      <c r="D74">
+        <v>11.80659904399568</v>
+      </c>
+      <c r="E74">
+        <v>35.91455999999999</v>
+      </c>
+      <c r="F74">
+        <v>35.96256</v>
+      </c>
+      <c r="G74">
+        <v>15.1</v>
+      </c>
+      <c r="H74">
+        <v>49.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.9</v>
+      </c>
+      <c r="K74">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L74">
+        <v>1.72</v>
+      </c>
+      <c r="M74">
+        <v>6.606322271999999</v>
+      </c>
+      <c r="N74">
+        <v>-4.886322271999999</v>
+      </c>
+      <c r="O74">
+        <v>-0.8306747862399999</v>
+      </c>
+      <c r="P74">
+        <v>-4.05564748576</v>
+      </c>
+      <c r="Q74">
+        <v>-3.87564748576</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2180085003156217</v>
+      </c>
+      <c r="T74">
+        <v>4.421790260924188</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.04426063215827326</v>
+      </c>
+      <c r="W74">
+        <v>0.1755693218725252</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.2603566597545486</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1891962918365922</v>
+      </c>
+      <c r="C75">
+        <v>-9.669899728458798</v>
+      </c>
+      <c r="D75">
+        <v>11.6921402715412</v>
+      </c>
+      <c r="E75">
+        <v>36.41404</v>
+      </c>
+      <c r="F75">
+        <v>36.46204</v>
+      </c>
+      <c r="G75">
+        <v>15.1</v>
+      </c>
+      <c r="H75">
+        <v>49.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.9</v>
+      </c>
+      <c r="K75">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L75">
+        <v>1.72</v>
+      </c>
+      <c r="M75">
+        <v>6.698076748</v>
+      </c>
+      <c r="N75">
+        <v>-4.978076748</v>
+      </c>
+      <c r="O75">
+        <v>-0.8462730471600001</v>
+      </c>
+      <c r="P75">
+        <v>-4.13180370084</v>
+      </c>
+      <c r="Q75">
+        <v>-3.95180370084</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2257384447717558</v>
+      </c>
+      <c r="T75">
+        <v>4.585560270588046</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.04365432212870786</v>
+      </c>
+      <c r="W75">
+        <v>0.1756807010249564</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.2567901301688698</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1909402918365922</v>
+      </c>
+      <c r="C76">
+        <v>-10.28164057338142</v>
+      </c>
+      <c r="D76">
+        <v>11.57987942661858</v>
+      </c>
+      <c r="E76">
+        <v>36.91352</v>
+      </c>
+      <c r="F76">
+        <v>36.96152</v>
+      </c>
+      <c r="G76">
+        <v>15.1</v>
+      </c>
+      <c r="H76">
+        <v>49.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.9</v>
+      </c>
+      <c r="K76">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L76">
+        <v>1.72</v>
+      </c>
+      <c r="M76">
+        <v>6.789831224</v>
+      </c>
+      <c r="N76">
+        <v>-5.069831224000001</v>
+      </c>
+      <c r="O76">
+        <v>-0.8618713080800001</v>
+      </c>
+      <c r="P76">
+        <v>-4.20795991592</v>
+      </c>
+      <c r="Q76">
+        <v>-4.02795991592</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2340630003399003</v>
+      </c>
+      <c r="T76">
+        <v>4.761927973302972</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.0430643988566983</v>
+      </c>
+      <c r="W76">
+        <v>0.1757890699300245</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2533199932746958</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1926842918365922</v>
+      </c>
+      <c r="C77">
+        <v>-10.89124619819785</v>
+      </c>
+      <c r="D77">
+        <v>11.46975380180215</v>
+      </c>
+      <c r="E77">
+        <v>37.413</v>
+      </c>
+      <c r="F77">
+        <v>37.461</v>
+      </c>
+      <c r="G77">
+        <v>15.1</v>
+      </c>
+      <c r="H77">
+        <v>49.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.9</v>
+      </c>
+      <c r="K77">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L77">
+        <v>1.72</v>
+      </c>
+      <c r="M77">
+        <v>6.8815857</v>
+      </c>
+      <c r="N77">
+        <v>-5.1615857</v>
+      </c>
+      <c r="O77">
+        <v>-0.8774695690000001</v>
+      </c>
+      <c r="P77">
+        <v>-4.284116130999999</v>
+      </c>
+      <c r="Q77">
+        <v>-4.104116131</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2430535203534963</v>
+      </c>
+      <c r="T77">
+        <v>4.952405092235091</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.04249020687194233</v>
+      </c>
+      <c r="W77">
+        <v>0.1758945489976242</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2499423933643665</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1944282918365922</v>
+      </c>
+      <c r="C78">
+        <v>-11.49877694739398</v>
+      </c>
+      <c r="D78">
+        <v>11.36170305260602</v>
+      </c>
+      <c r="E78">
+        <v>37.91248</v>
+      </c>
+      <c r="F78">
+        <v>37.96048</v>
+      </c>
+      <c r="G78">
+        <v>15.1</v>
+      </c>
+      <c r="H78">
+        <v>49.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.9</v>
+      </c>
+      <c r="K78">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L78">
+        <v>1.72</v>
+      </c>
+      <c r="M78">
+        <v>6.973340176000001</v>
+      </c>
+      <c r="N78">
+        <v>-5.253340176000001</v>
+      </c>
+      <c r="O78">
+        <v>-0.8930678299200002</v>
+      </c>
+      <c r="P78">
+        <v>-4.36027234608</v>
+      </c>
+      <c r="Q78">
+        <v>-4.180272346080001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2527932503682253</v>
+      </c>
+      <c r="T78">
+        <v>5.158755304411553</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.04193112520257466</v>
+      </c>
+      <c r="W78">
+        <v>0.175997252300287</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2466536776622038</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1961722918365922</v>
+      </c>
+      <c r="C79">
+        <v>-12.10429091277753</v>
+      </c>
+      <c r="D79">
+        <v>11.25566908722248</v>
+      </c>
+      <c r="E79">
+        <v>38.41196</v>
+      </c>
+      <c r="F79">
+        <v>38.45996</v>
+      </c>
+      <c r="G79">
+        <v>15.1</v>
+      </c>
+      <c r="H79">
+        <v>49.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.9</v>
+      </c>
+      <c r="K79">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L79">
+        <v>1.72</v>
+      </c>
+      <c r="M79">
+        <v>7.065094652000001</v>
+      </c>
+      <c r="N79">
+        <v>-5.345094652000001</v>
+      </c>
+      <c r="O79">
+        <v>-0.9086660908400003</v>
+      </c>
+      <c r="P79">
+        <v>-4.436428561160001</v>
+      </c>
+      <c r="Q79">
+        <v>-4.256428561160001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2633799134277133</v>
+      </c>
+      <c r="T79">
+        <v>5.383049013299012</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.04138656513500875</v>
+      </c>
+      <c r="W79">
+        <v>0.1760972879846989</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2434503831471102</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1979162918365922</v>
+      </c>
+      <c r="C80">
+        <v>-12.70784403762255</v>
+      </c>
+      <c r="D80">
+        <v>11.15159596237745</v>
+      </c>
+      <c r="E80">
+        <v>38.91144</v>
+      </c>
+      <c r="F80">
+        <v>38.95944</v>
+      </c>
+      <c r="G80">
+        <v>15.1</v>
+      </c>
+      <c r="H80">
+        <v>49.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.9</v>
+      </c>
+      <c r="K80">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L80">
+        <v>1.72</v>
+      </c>
+      <c r="M80">
+        <v>7.156849128</v>
+      </c>
+      <c r="N80">
+        <v>-5.436849128</v>
+      </c>
+      <c r="O80">
+        <v>-0.9242643517600001</v>
+      </c>
+      <c r="P80">
+        <v>-4.512584776240001</v>
+      </c>
+      <c r="Q80">
+        <v>-4.332584776240001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2749290004017003</v>
+      </c>
+      <c r="T80">
+        <v>5.627733059358058</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.04085596814609838</v>
+      </c>
+      <c r="W80">
+        <v>0.1761947586515617</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.240329224388814</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1996602918365922</v>
+      </c>
+      <c r="C81">
+        <v>-13.30949021508923</v>
+      </c>
+      <c r="D81">
+        <v>11.04942978491077</v>
+      </c>
+      <c r="E81">
+        <v>39.41092</v>
+      </c>
+      <c r="F81">
+        <v>39.45892</v>
+      </c>
+      <c r="G81">
+        <v>15.1</v>
+      </c>
+      <c r="H81">
+        <v>49.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.9</v>
+      </c>
+      <c r="K81">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L81">
+        <v>1.72</v>
+      </c>
+      <c r="M81">
+        <v>7.248603603999999</v>
+      </c>
+      <c r="N81">
+        <v>-5.528603604</v>
+      </c>
+      <c r="O81">
+        <v>-0.93986261268</v>
+      </c>
+      <c r="P81">
+        <v>-4.58874099132</v>
+      </c>
+      <c r="Q81">
+        <v>-4.40874099132</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.287578000420829</v>
+      </c>
+      <c r="T81">
+        <v>5.895720347898919</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.04033880399235031</v>
+      </c>
+      <c r="W81">
+        <v>0.1762897617066052</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.2372870823079429</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2014042918365922</v>
+      </c>
+      <c r="C82">
+        <v>-13.90928138128263</v>
+      </c>
+      <c r="D82">
+        <v>10.94911861871738</v>
+      </c>
+      <c r="E82">
+        <v>39.9104</v>
+      </c>
+      <c r="F82">
+        <v>39.9584</v>
+      </c>
+      <c r="G82">
+        <v>15.1</v>
+      </c>
+      <c r="H82">
+        <v>49.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.9</v>
+      </c>
+      <c r="K82">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L82">
+        <v>1.72</v>
+      </c>
+      <c r="M82">
+        <v>7.340358080000001</v>
+      </c>
+      <c r="N82">
+        <v>-5.620358080000001</v>
+      </c>
+      <c r="O82">
+        <v>-0.9554608736000002</v>
+      </c>
+      <c r="P82">
+        <v>-4.664897206400001</v>
+      </c>
+      <c r="Q82">
+        <v>-4.484897206400001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3014919004418704</v>
+      </c>
+      <c r="T82">
+        <v>6.190506365293865</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.03983456894244593</v>
+      </c>
+      <c r="W82">
+        <v>0.1763823896852727</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.2343209937790937</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2031482918365922</v>
+      </c>
+      <c r="C83">
+        <v>-14.50726760328813</v>
+      </c>
+      <c r="D83">
+        <v>10.85061239671187</v>
+      </c>
+      <c r="E83">
+        <v>40.40988</v>
+      </c>
+      <c r="F83">
+        <v>40.45788</v>
+      </c>
+      <c r="G83">
+        <v>15.1</v>
+      </c>
+      <c r="H83">
+        <v>49.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.9</v>
+      </c>
+      <c r="K83">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L83">
+        <v>1.72</v>
+      </c>
+      <c r="M83">
+        <v>7.432112556000001</v>
+      </c>
+      <c r="N83">
+        <v>-5.712112556000001</v>
+      </c>
+      <c r="O83">
+        <v>-0.9710591345200003</v>
+      </c>
+      <c r="P83">
+        <v>-4.741053421480001</v>
+      </c>
+      <c r="Q83">
+        <v>-4.561053421480001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3168704215177583</v>
+      </c>
+      <c r="T83">
+        <v>6.516322489783016</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.03934278414068733</v>
+      </c>
+      <c r="W83">
+        <v>0.1764727305533557</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.231428142004043</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2048922918365922</v>
+      </c>
+      <c r="C84">
+        <v>-15.10349716249711</v>
+      </c>
+      <c r="D84">
+        <v>10.75386283750289</v>
+      </c>
+      <c r="E84">
+        <v>40.90936</v>
+      </c>
+      <c r="F84">
+        <v>40.95736</v>
+      </c>
+      <c r="G84">
+        <v>15.1</v>
+      </c>
+      <c r="H84">
+        <v>49.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.9</v>
+      </c>
+      <c r="K84">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L84">
+        <v>1.72</v>
+      </c>
+      <c r="M84">
+        <v>7.523867032</v>
+      </c>
+      <c r="N84">
+        <v>-5.803867032</v>
+      </c>
+      <c r="O84">
+        <v>-0.9866573954400001</v>
+      </c>
+      <c r="P84">
+        <v>-4.81720963656</v>
+      </c>
+      <c r="Q84">
+        <v>-4.637209636560001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3339576671576338</v>
+      </c>
+      <c r="T84">
+        <v>6.878340405882073</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.03886299409019114</v>
+      </c>
+      <c r="W84">
+        <v>0.1765608679856319</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.2286058475893596</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2066362918365922</v>
+      </c>
+      <c r="C85">
+        <v>-15.69801663351411</v>
+      </c>
+      <c r="D85">
+        <v>10.6588233664859</v>
+      </c>
+      <c r="E85">
+        <v>41.40884</v>
+      </c>
+      <c r="F85">
+        <v>41.45684000000001</v>
+      </c>
+      <c r="G85">
+        <v>15.1</v>
+      </c>
+      <c r="H85">
+        <v>49.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.9</v>
+      </c>
+      <c r="K85">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L85">
+        <v>1.72</v>
+      </c>
+      <c r="M85">
+        <v>7.615621508000001</v>
+      </c>
+      <c r="N85">
+        <v>-5.895621508000001</v>
+      </c>
+      <c r="O85">
+        <v>-1.00225565636</v>
+      </c>
+      <c r="P85">
+        <v>-4.893365851640001</v>
+      </c>
+      <c r="Q85">
+        <v>-4.713365851640002</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3530551769904359</v>
+      </c>
+      <c r="T85">
+        <v>7.282948665051608</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.03839476524573101</v>
+      </c>
+      <c r="W85">
+        <v>0.1766468816243592</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2258515602690059</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2083802918365922</v>
+      </c>
+      <c r="C86">
+        <v>-16.29087095891649</v>
+      </c>
+      <c r="D86">
+        <v>10.56544904108351</v>
+      </c>
+      <c r="E86">
+        <v>41.90832</v>
+      </c>
+      <c r="F86">
+        <v>41.95632</v>
+      </c>
+      <c r="G86">
+        <v>15.1</v>
+      </c>
+      <c r="H86">
+        <v>49.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.9</v>
+      </c>
+      <c r="K86">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L86">
+        <v>1.72</v>
+      </c>
+      <c r="M86">
+        <v>7.707375984</v>
+      </c>
+      <c r="N86">
+        <v>-5.987375984</v>
+      </c>
+      <c r="O86">
+        <v>-1.01785391728</v>
+      </c>
+      <c r="P86">
+        <v>-4.96952206672</v>
+      </c>
+      <c r="Q86">
+        <v>-4.78952206672</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3745398755523379</v>
+      </c>
+      <c r="T86">
+        <v>7.738132956617329</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.03793768470709136</v>
+      </c>
+      <c r="W86">
+        <v>0.1767308473193073</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.2231628512181845</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2101242918365922</v>
+      </c>
+      <c r="C87">
+        <v>-16.88210352011881</v>
+      </c>
+      <c r="D87">
+        <v>10.47369647988119</v>
+      </c>
+      <c r="E87">
+        <v>42.40779999999999</v>
+      </c>
+      <c r="F87">
+        <v>42.4558</v>
+      </c>
+      <c r="G87">
+        <v>15.1</v>
+      </c>
+      <c r="H87">
+        <v>49.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.9</v>
+      </c>
+      <c r="K87">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L87">
+        <v>1.72</v>
+      </c>
+      <c r="M87">
+        <v>7.79913046</v>
+      </c>
+      <c r="N87">
+        <v>-6.07913046</v>
+      </c>
+      <c r="O87">
+        <v>-1.0334521782</v>
+      </c>
+      <c r="P87">
+        <v>-5.0456782818</v>
+      </c>
+      <c r="Q87">
+        <v>-4.8656782818</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3988892005891604</v>
+      </c>
+      <c r="T87">
+        <v>8.254008487058485</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.03749135900465499</v>
+      </c>
+      <c r="W87">
+        <v>0.1768128373508449</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2205374059097353</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2118682918365922</v>
+      </c>
+      <c r="C88">
+        <v>-17.47175620457649</v>
+      </c>
+      <c r="D88">
+        <v>10.38352379542351</v>
+      </c>
+      <c r="E88">
+        <v>42.90728</v>
+      </c>
+      <c r="F88">
+        <v>42.95528</v>
+      </c>
+      <c r="G88">
+        <v>15.1</v>
+      </c>
+      <c r="H88">
+        <v>49.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.9</v>
+      </c>
+      <c r="K88">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L88">
+        <v>1.72</v>
+      </c>
+      <c r="M88">
+        <v>7.890884936000001</v>
+      </c>
+      <c r="N88">
+        <v>-6.170884936000001</v>
+      </c>
+      <c r="O88">
+        <v>-1.04905043912</v>
+      </c>
+      <c r="P88">
+        <v>-5.121834496880001</v>
+      </c>
+      <c r="Q88">
+        <v>-4.941834496880001</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4267170006312433</v>
+      </c>
+      <c r="T88">
+        <v>8.843580521848375</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.03705541296971714</v>
+      </c>
+      <c r="W88">
+        <v>0.176892920637463</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.2179730174689243</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2136122918365922</v>
+      </c>
+      <c r="C89">
+        <v>-18.05986946954766</v>
+      </c>
+      <c r="D89">
+        <v>10.29489053045234</v>
+      </c>
+      <c r="E89">
+        <v>43.40676</v>
+      </c>
+      <c r="F89">
+        <v>43.45476</v>
+      </c>
+      <c r="G89">
+        <v>15.1</v>
+      </c>
+      <c r="H89">
+        <v>49.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.9</v>
+      </c>
+      <c r="K89">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L89">
+        <v>1.72</v>
+      </c>
+      <c r="M89">
+        <v>7.982639412</v>
+      </c>
+      <c r="N89">
+        <v>-6.262639412</v>
+      </c>
+      <c r="O89">
+        <v>-1.06464870004</v>
+      </c>
+      <c r="P89">
+        <v>-5.19799071196</v>
+      </c>
+      <c r="Q89">
+        <v>-5.01799071196</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4588260006798005</v>
+      </c>
+      <c r="T89">
+        <v>9.523855946605943</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.0366294886827089</v>
+      </c>
+      <c r="W89">
+        <v>0.1769711629289864</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2154675804865229</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2153562918365922</v>
+      </c>
+      <c r="C90">
+        <v>-18.64648240261697</v>
+      </c>
+      <c r="D90">
+        <v>10.20775759738303</v>
+      </c>
+      <c r="E90">
+        <v>43.90624</v>
+      </c>
+      <c r="F90">
+        <v>43.95424</v>
+      </c>
+      <c r="G90">
+        <v>15.1</v>
+      </c>
+      <c r="H90">
+        <v>49.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.9</v>
+      </c>
+      <c r="K90">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L90">
+        <v>1.72</v>
+      </c>
+      <c r="M90">
+        <v>8.074393887999999</v>
+      </c>
+      <c r="N90">
+        <v>-6.354393888</v>
+      </c>
+      <c r="O90">
+        <v>-1.08024696096</v>
+      </c>
+      <c r="P90">
+        <v>-5.274146927039999</v>
+      </c>
+      <c r="Q90">
+        <v>-5.09414692704</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4962865007364506</v>
+      </c>
+      <c r="T90">
+        <v>10.31751060882311</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.03621324449313267</v>
+      </c>
+      <c r="W90">
+        <v>0.1770476269866115</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2130190852537215</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2171002918365922</v>
+      </c>
+      <c r="C91">
+        <v>-19.23163277917177</v>
+      </c>
+      <c r="D91">
+        <v>10.12208722082824</v>
+      </c>
+      <c r="E91">
+        <v>44.40572</v>
+      </c>
+      <c r="F91">
+        <v>44.45372</v>
+      </c>
+      <c r="G91">
+        <v>15.1</v>
+      </c>
+      <c r="H91">
+        <v>49.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.9</v>
+      </c>
+      <c r="K91">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L91">
+        <v>1.72</v>
+      </c>
+      <c r="M91">
+        <v>8.166148364000001</v>
+      </c>
+      <c r="N91">
+        <v>-6.446148364000002</v>
+      </c>
+      <c r="O91">
+        <v>-1.09584522188</v>
+      </c>
+      <c r="P91">
+        <v>-5.350303142120001</v>
+      </c>
+      <c r="Q91">
+        <v>-5.170303142120002</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5405580008034007</v>
+      </c>
+      <c r="T91">
+        <v>11.25546611871612</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.03580635410556936</v>
+      </c>
+      <c r="W91">
+        <v>0.1771223727508069</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2106256123857021</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2188442918365922</v>
+      </c>
+      <c r="C92">
+        <v>-19.81535711700794</v>
+      </c>
+      <c r="D92">
+        <v>10.03784288299206</v>
+      </c>
+      <c r="E92">
+        <v>44.9052</v>
+      </c>
+      <c r="F92">
+        <v>44.9532</v>
+      </c>
+      <c r="G92">
+        <v>15.1</v>
+      </c>
+      <c r="H92">
+        <v>49.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.9</v>
+      </c>
+      <c r="K92">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L92">
+        <v>1.72</v>
+      </c>
+      <c r="M92">
+        <v>8.25790284</v>
+      </c>
+      <c r="N92">
+        <v>-6.53790284</v>
+      </c>
+      <c r="O92">
+        <v>-1.1114434828</v>
+      </c>
+      <c r="P92">
+        <v>-5.4264593572</v>
+      </c>
+      <c r="Q92">
+        <v>-5.2464593572</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5936838008837407</v>
+      </c>
+      <c r="T92">
+        <v>12.38101273058773</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.0354085057266186</v>
+      </c>
+      <c r="W92">
+        <v>0.1771954574980202</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2082853278036388</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2205882918365922</v>
+      </c>
+      <c r="C93">
+        <v>-20.39769072823159</v>
+      </c>
+      <c r="D93">
+        <v>9.95498927176841</v>
+      </c>
+      <c r="E93">
+        <v>45.40468</v>
+      </c>
+      <c r="F93">
+        <v>45.45268</v>
+      </c>
+      <c r="G93">
+        <v>15.1</v>
+      </c>
+      <c r="H93">
+        <v>49.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.9</v>
+      </c>
+      <c r="K93">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L93">
+        <v>1.72</v>
+      </c>
+      <c r="M93">
+        <v>8.349657316</v>
+      </c>
+      <c r="N93">
+        <v>-6.629657316</v>
+      </c>
+      <c r="O93">
+        <v>-1.12704174372</v>
+      </c>
+      <c r="P93">
+        <v>-5.50261557228</v>
+      </c>
+      <c r="Q93">
+        <v>-5.32261557228</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6586153343152676</v>
+      </c>
+      <c r="T93">
+        <v>13.75668081176415</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.03501940126808433</v>
+      </c>
+      <c r="W93">
+        <v>0.1772669359870529</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2059964780475548</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2223322918365922</v>
+      </c>
+      <c r="C94">
+        <v>-20.97866776861118</v>
+      </c>
+      <c r="D94">
+        <v>9.873492231388818</v>
+      </c>
+      <c r="E94">
+        <v>45.90416</v>
+      </c>
+      <c r="F94">
+        <v>45.95216</v>
+      </c>
+      <c r="G94">
+        <v>15.1</v>
+      </c>
+      <c r="H94">
+        <v>49.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.9</v>
+      </c>
+      <c r="K94">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L94">
+        <v>1.72</v>
+      </c>
+      <c r="M94">
+        <v>8.441411792</v>
+      </c>
+      <c r="N94">
+        <v>-6.721411792</v>
+      </c>
+      <c r="O94">
+        <v>-1.14264000464</v>
+      </c>
+      <c r="P94">
+        <v>-5.57877178736</v>
+      </c>
+      <c r="Q94">
+        <v>-5.39877178736</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7397797511046763</v>
+      </c>
+      <c r="T94">
+        <v>15.47626591323467</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.03463875560212689</v>
+      </c>
+      <c r="W94">
+        <v>0.1773368605958893</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.203757385894864</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2240762918365922</v>
+      </c>
+      <c r="C95">
+        <v>-21.55832128452533</v>
+      </c>
+      <c r="D95">
+        <v>9.793318715474673</v>
+      </c>
+      <c r="E95">
+        <v>46.40364</v>
+      </c>
+      <c r="F95">
+        <v>46.45164</v>
+      </c>
+      <c r="G95">
+        <v>15.1</v>
+      </c>
+      <c r="H95">
+        <v>49.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.9</v>
+      </c>
+      <c r="K95">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L95">
+        <v>1.72</v>
+      </c>
+      <c r="M95">
+        <v>8.533166268</v>
+      </c>
+      <c r="N95">
+        <v>-6.813166268000001</v>
+      </c>
+      <c r="O95">
+        <v>-1.15823826556</v>
+      </c>
+      <c r="P95">
+        <v>-5.65492800244</v>
+      </c>
+      <c r="Q95">
+        <v>-5.47492800244</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8441340012624873</v>
+      </c>
+      <c r="T95">
+        <v>17.68716104369677</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.03426629586446962</v>
+      </c>
+      <c r="W95">
+        <v>0.1774052814496969</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2015664462615859</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2258202918365922</v>
+      </c>
+      <c r="C96">
+        <v>-22.13668325764164</v>
+      </c>
+      <c r="D96">
+        <v>9.71443674235837</v>
+      </c>
+      <c r="E96">
+        <v>46.90312</v>
+      </c>
+      <c r="F96">
+        <v>46.95112</v>
+      </c>
+      <c r="G96">
+        <v>15.1</v>
+      </c>
+      <c r="H96">
+        <v>49.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.9</v>
+      </c>
+      <c r="K96">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L96">
+        <v>1.72</v>
+      </c>
+      <c r="M96">
+        <v>8.624920744000001</v>
+      </c>
+      <c r="N96">
+        <v>-6.904920744000001</v>
+      </c>
+      <c r="O96">
+        <v>-1.17383652648</v>
+      </c>
+      <c r="P96">
+        <v>-5.731084217520001</v>
+      </c>
+      <c r="Q96">
+        <v>-5.551084217520001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.983273001472902</v>
+      </c>
+      <c r="T96">
+        <v>20.63502121764623</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.03390176080208163</v>
+      </c>
+      <c r="W96">
+        <v>0.1774722465406576</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1994221223651861</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2275642918365922</v>
+      </c>
+      <c r="C97">
+        <v>-22.71378464745356</v>
+      </c>
+      <c r="D97">
+        <v>9.63681535254644</v>
+      </c>
+      <c r="E97">
+        <v>47.4026</v>
+      </c>
+      <c r="F97">
+        <v>47.4506</v>
+      </c>
+      <c r="G97">
+        <v>15.1</v>
+      </c>
+      <c r="H97">
+        <v>49.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.9</v>
+      </c>
+      <c r="K97">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L97">
+        <v>1.72</v>
+      </c>
+      <c r="M97">
+        <v>8.716675220000001</v>
+      </c>
+      <c r="N97">
+        <v>-6.996675220000001</v>
+      </c>
+      <c r="O97">
+        <v>-1.1894347874</v>
+      </c>
+      <c r="P97">
+        <v>-5.8072404326</v>
+      </c>
+      <c r="Q97">
+        <v>-5.627240432600001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.178067601767483</v>
+      </c>
+      <c r="T97">
+        <v>24.76202546117549</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.03354490016205972</v>
+      </c>
+      <c r="W97">
+        <v>0.1775378018402296</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1973229421297631</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2293082918365922</v>
+      </c>
+      <c r="C98">
+        <v>-23.28965543179419</v>
+      </c>
+      <c r="D98">
+        <v>9.560424568205804</v>
+      </c>
+      <c r="E98">
+        <v>47.90208</v>
+      </c>
+      <c r="F98">
+        <v>47.95008</v>
+      </c>
+      <c r="G98">
+        <v>15.1</v>
+      </c>
+      <c r="H98">
+        <v>49.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.9</v>
+      </c>
+      <c r="K98">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L98">
+        <v>1.72</v>
+      </c>
+      <c r="M98">
+        <v>8.808429695999999</v>
+      </c>
+      <c r="N98">
+        <v>-7.088429696</v>
+      </c>
+      <c r="O98">
+        <v>-1.20503304832</v>
+      </c>
+      <c r="P98">
+        <v>-5.88339664768</v>
+      </c>
+      <c r="Q98">
+        <v>-5.70339664768</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.470259502209351</v>
+      </c>
+      <c r="T98">
+        <v>30.95253182646929</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.03319547411870494</v>
+      </c>
+      <c r="W98">
+        <v>0.1776019914043939</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1952674948159114</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2310522918365922</v>
+      </c>
+      <c r="C99">
+        <v>-23.86432464543821</v>
+      </c>
+      <c r="D99">
+        <v>9.485235354561791</v>
+      </c>
+      <c r="E99">
+        <v>48.40156</v>
+      </c>
+      <c r="F99">
+        <v>48.44956</v>
+      </c>
+      <c r="G99">
+        <v>15.1</v>
+      </c>
+      <c r="H99">
+        <v>49.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.9</v>
+      </c>
+      <c r="K99">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L99">
+        <v>1.72</v>
+      </c>
+      <c r="M99">
+        <v>8.900184171999999</v>
+      </c>
+      <c r="N99">
+        <v>-7.180184172</v>
+      </c>
+      <c r="O99">
+        <v>-1.22063130924</v>
+      </c>
+      <c r="P99">
+        <v>-5.95955286276</v>
+      </c>
+      <c r="Q99">
+        <v>-5.77955286276</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.957246002945801</v>
+      </c>
+      <c r="T99">
+        <v>41.27004243529239</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.03285325273603788</v>
+      </c>
+      <c r="W99">
+        <v>0.1776648574723898</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1932544278590463</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2327962918365922</v>
+      </c>
+      <c r="C100">
+        <v>-24.43782041689651</v>
+      </c>
+      <c r="D100">
+        <v>9.411219583103486</v>
+      </c>
+      <c r="E100">
+        <v>48.90103999999999</v>
+      </c>
+      <c r="F100">
+        <v>48.94904</v>
+      </c>
+      <c r="G100">
+        <v>15.1</v>
+      </c>
+      <c r="H100">
+        <v>49.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.9</v>
+      </c>
+      <c r="K100">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L100">
+        <v>1.72</v>
+      </c>
+      <c r="M100">
+        <v>8.991938648</v>
+      </c>
+      <c r="N100">
+        <v>-7.271938648</v>
+      </c>
+      <c r="O100">
+        <v>-1.23622957016</v>
+      </c>
+      <c r="P100">
+        <v>-6.03570907784</v>
+      </c>
+      <c r="Q100">
+        <v>-5.85570907784</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.931219004418701</v>
+      </c>
+      <c r="T100">
+        <v>61.90506365293858</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.03251801546322117</v>
+      </c>
+      <c r="W100">
+        <v>0.1777264405594063</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1912824439013009</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2345402918365922</v>
+      </c>
+      <c r="C101">
+        <v>-25.01017000350156</v>
+      </c>
+      <c r="D101">
+        <v>9.338349996498442</v>
+      </c>
+      <c r="E101">
+        <v>49.40052</v>
+      </c>
+      <c r="F101">
+        <v>49.44852</v>
+      </c>
+      <c r="G101">
+        <v>15.1</v>
+      </c>
+      <c r="H101">
+        <v>49.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.9</v>
+      </c>
+      <c r="K101">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="L101">
+        <v>1.72</v>
+      </c>
+      <c r="M101">
+        <v>9.083693124</v>
+      </c>
+      <c r="N101">
+        <v>-7.363693124</v>
+      </c>
+      <c r="O101">
+        <v>-1.25182783108</v>
+      </c>
+      <c r="P101">
+        <v>-6.11186529292</v>
+      </c>
+      <c r="Q101">
+        <v>-5.93186529292</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.853138008837401</v>
+      </c>
+      <c r="T101">
+        <v>123.8101273058772</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.03218955066056237</v>
+      </c>
+      <c r="W101">
+        <v>0.1777867795436547</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.189350298003308</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
